--- a/JavaApplication19/src/excel/DeudasC.xlsx
+++ b/JavaApplication19/src/excel/DeudasC.xlsx
@@ -1,26 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Google Drive\EPIC MOUNTAIN\ADMINISTRACIÒN\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B72F20-9DFB-4C4E-93FE-4DBD9C91A10C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F037703D-DCE2-4FD8-8A1C-1A769A6DD818}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="DEUDAS" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>DANTE SAMAEL</t>
+  </si>
+  <si>
+    <t>CANTIDAD A COBRAR</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +54,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF03DF7B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,18 +102,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Salida" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF03DF7B"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -68,8 +169,63 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>988594</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3367</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="6 Imagen">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E728215A-E4D7-473D-8289-D4B42595905B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1071562" y="23813"/>
+          <a:ext cx="964782" cy="741554"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -85,7 +241,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -97,7 +253,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -144,6 +300,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -179,6 +352,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -330,13 +520,171 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB63353-6CCF-484C-B02E-43965284DF5E}">
+  <dimension ref="A1:Z100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="26" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+    </row>
+    <row r="2" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="6">
+        <f>SUM(C2)</f>
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/JavaApplication19/src/excel/DeudasC.xlsx
+++ b/JavaApplication19/src/excel/DeudasC.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Google Drive\EPIC MOUNTAIN\ADMINISTRACIÒN\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,12 +31,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>DANTE SAMAEL</t>
   </si>
   <si>
     <t>CANTIDAD A COBRAR</t>
+  </si>
+  <si>
+    <t>22  julio</t>
+  </si>
+  <si>
+    <t>bichin</t>
+  </si>
+  <si>
+    <t>$8900</t>
   </si>
 </sst>
 </file>
@@ -529,9 +538,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="26" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="false"/>
+    <col min="3" max="26" customWidth="true" width="15.7109375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -575,15 +584,25 @@
         <v>2784</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="6">
+    <row r="3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="6">
         <f>SUM(C2)</f>
         <v>2784</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/JavaApplication19/src/excel/DeudasC.xlsx
+++ b/JavaApplication19/src/excel/DeudasC.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Google Drive\EPIC MOUNTAIN\ADMINISTRACIÒN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B72F20-9DFB-4C4E-93FE-4DBD9C91A10C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CEBE10-9E2C-43AB-8D9C-A23FDCF84B32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F037703D-DCE2-4FD8-8A1C-1A769A6DD818}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,21 +31,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>DANTE SAMAEL</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>CANTIDAD A COBRAR</t>
-  </si>
-  <si>
-    <t>22  julio</t>
-  </si>
-  <si>
-    <t>bichin</t>
-  </si>
-  <si>
-    <t>$8900</t>
   </si>
 </sst>
 </file>
@@ -55,7 +43,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,6 +54,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -133,26 +137,26 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="15" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -183,15 +187,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
+      <xdr:colOff>200705</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
+      <xdr:rowOff>13607</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>988594</xdr:colOff>
+      <xdr:colOff>843643</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>3367</xdr:rowOff>
+      <xdr:rowOff>4320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -220,8 +224,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1071562" y="23813"/>
-          <a:ext cx="964782" cy="741554"/>
+          <a:off x="1248455" y="13607"/>
+          <a:ext cx="642938" cy="494177"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -532,77 +536,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB63353-6CCF-484C-B02E-43965284DF5E}">
   <dimension ref="A1:Z100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.7109375" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="false"/>
-    <col min="3" max="26" customWidth="true" width="15.7109375" collapsed="false"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="26" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-    </row>
-    <row r="2" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>43939</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="1:26" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
-        <v>2784</v>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:26" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8">
+        <f>SUM(C2)</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="6">
-        <f>SUM(C2)</f>
-        <v>2784</v>
-      </c>
-    </row>
+    <row r="4" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/JavaApplication19/src/excel/DeudasC.xlsx
+++ b/JavaApplication19/src/excel/DeudasC.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Google Drive\EPIC MOUNTAIN\ADMINISTRACIÒN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CEBE10-9E2C-43AB-8D9C-A23FDCF84B32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C65006-76FB-4333-A69E-D7C1DD1A9ECF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F037703D-DCE2-4FD8-8A1C-1A769A6DD818}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F037703D-DCE2-4FD8-8A1C-1A769A6DD818}"/>
   </bookViews>
   <sheets>
-    <sheet name="DEUDAS" sheetId="1" r:id="rId1"/>
+    <sheet name="deudasCobrar" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,9 +31,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>CANTIDAD A COBRAR</t>
+  </si>
+  <si>
+    <t>22  julio</t>
+  </si>
+  <si>
+    <t>GABRIEL PEREZ</t>
+  </si>
+  <si>
+    <t>$890</t>
   </si>
 </sst>
 </file>
@@ -140,9 +149,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -159,10 +165,13 @@
     <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Salida" xfId="1" builtinId="21"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -238,7 +247,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -537,20 +546,20 @@
   <dimension ref="A1:Z100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="26" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="26" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="1:26" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1"/>
@@ -577,116 +586,126 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8">
-        <f>SUM(C2)</f>
+    <row r="3" spans="1:26" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:26" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7">
+        <f>SUM(C3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/JavaApplication19/src/excel/DeudasC.xlsx
+++ b/JavaApplication19/src/excel/DeudasC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C65006-76FB-4333-A69E-D7C1DD1A9ECF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA05E697-7F7A-4B08-9F4E-F4BC4BD4B53F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F037703D-DCE2-4FD8-8A1C-1A769A6DD818}"/>
   </bookViews>
@@ -19,12 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -52,7 +46,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +74,12 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -144,21 +144,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
@@ -546,7 +537,7 @@
   <dimension ref="A1:Z100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -557,8 +548,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
@@ -599,17 +590,13 @@
     </row>
     <row r="3" spans="1:26" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:26" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7">
-        <f>SUM(C3)</f>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4">
+        <f>SUM(C2)</f>
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:26" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -710,6 +697,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/JavaApplication19/src/excel/DeudasC.xlsx
+++ b/JavaApplication19/src/excel/DeudasC.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>CANTIDAD A COBRAR</t>
   </si>
@@ -43,6 +43,15 @@
   </si>
   <si>
     <t>$890</t>
+  </si>
+  <si>
+    <t>PACO CHAVEZ</t>
+  </si>
+  <si>
+    <t>$12</t>
+  </si>
+  <si>
+    <t>$</t>
   </si>
 </sst>
 </file>
@@ -551,9 +560,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="26" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
+    <col min="3" max="26" customWidth="true" width="15.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -597,21 +606,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
+    <row r="3">
+      <c r="A3" t="s" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s" s="3">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7">
-        <f>SUM(C3)</f>
+    <row r="4">
+      <c r="A4" t="s" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:26" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7">
+        <f>SUM(C5)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/JavaApplication19/src/excel/DeudasC.xlsx
+++ b/JavaApplication19/src/excel/DeudasC.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>CANTIDAD A COBRAR</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>$</t>
+  </si>
+  <si>
+    <t>24  julio</t>
+  </si>
+  <si>
+    <t>$5800</t>
   </si>
 </sst>
 </file>
@@ -628,20 +634,30 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
+    <row r="5">
+      <c r="A5" t="s" s="3">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7">
-        <f>SUM(C5)</f>
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:26" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7">
+        <f>SUM(C6)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/JavaApplication19/src/excel/DeudasC.xlsx
+++ b/JavaApplication19/src/excel/DeudasC.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>CANTIDAD A COBRAR</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>$5800</t>
+  </si>
+  <si>
+    <t>27  julio</t>
+  </si>
+  <si>
+    <t>$234</t>
   </si>
 </sst>
 </file>
@@ -634,31 +640,31 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" t="s" s="3">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7">
-        <f>SUM(C6)</f>
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:26" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7">
+        <f>SUM(C7)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/JavaApplication19/src/excel/DeudasC.xlsx
+++ b/JavaApplication19/src/excel/DeudasC.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C65006-76FB-4333-A69E-D7C1DD1A9ECF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB602A0-ABD7-4EED-B12E-B1DCA18EB441}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F037703D-DCE2-4FD8-8A1C-1A769A6DD818}"/>
   </bookViews>
@@ -17,21 +17,15 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>CANTIDAD A COBRAR</t>
   </si>
@@ -52,12 +46,6 @@
   </si>
   <si>
     <t>$</t>
-  </si>
-  <si>
-    <t>24  julio</t>
-  </si>
-  <si>
-    <t>$5800</t>
   </si>
   <si>
     <t>27  julio</t>
@@ -165,7 +153,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -175,12 +163,6 @@
     </xf>
     <xf numFmtId="15" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -567,19 +549,19 @@
   <dimension ref="A1:Z100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C6" sqref="A6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
-    <col min="3" max="26" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="26" width="15.6640625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
@@ -618,53 +600,49 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="3">
+    <row r="3" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="3">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="3">
+    <row r="4" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s" s="3">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s" s="3">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5"/>
-    <row r="6">
-      <c r="A6" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s" s="3">
+    <row r="5" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" t="s" s="3">
-        <v>10</v>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
+    <row r="6" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5" t="e">
+        <f>SUM(#REF!)</f>
+        <v>#REF!</v>
+      </c>
     </row>
-    <row r="8" spans="1:26" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7">
-        <f>SUM(C7)</f>
-        <v>0</v>
-      </c>
-    </row>
+    <row r="7" spans="1:26" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:26" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/JavaApplication19/src/excel/DeudasC.xlsx
+++ b/JavaApplication19/src/excel/DeudasC.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>CANTIDAD A COBRAR</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>$234</t>
+  </si>
+  <si>
+    <t>$1245</t>
+  </si>
+  <si>
+    <t>$100</t>
   </si>
 </sst>
 </file>
@@ -554,9 +560,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="26" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
+    <col min="3" max="26" customWidth="true" width="15.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
@@ -633,17 +639,37 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5" t="e">
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:26" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:26" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/JavaApplication19/src/excel/DeudasC.xlsx
+++ b/JavaApplication19/src/excel/DeudasC.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>CANTIDAD A COBRAR</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>$100</t>
+  </si>
+  <si>
+    <t>28  julio 20</t>
+  </si>
+  <si>
+    <t>Erick Ivan Rodriguez</t>
+  </si>
+  <si>
+    <t>9600</t>
   </si>
 </sst>
 </file>
@@ -661,16 +670,26 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5" t="e">
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:26" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/JavaApplication19/src/excel/DeudasC.xlsx
+++ b/JavaApplication19/src/excel/DeudasC.xlsx
@@ -3,21 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB602A0-ABD7-4EED-B12E-B1DCA18EB441}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B585FAEB-AE0C-4F9A-8A24-6458336BE7BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F037703D-DCE2-4FD8-8A1C-1A769A6DD818}"/>
   </bookViews>
   <sheets>
-    <sheet name="deudasCobrar" sheetId="1" r:id="rId1"/>
+    <sheet name="deudasCobrar" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>CANTIDAD A COBRAR</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>9600</t>
+  </si>
+  <si>
+    <t>29  julio</t>
   </si>
 </sst>
 </file>
@@ -168,11 +171,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -213,23 +213,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>200705</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1077004</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
+      <xdr:rowOff>243841</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>843643</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>4320</xdr:rowOff>
+      <xdr:colOff>312419</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1099951</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="6 Imagen">
+        <xdr:cNvPr id="2" name="6 Imagen">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E728215A-E4D7-473D-8289-D4B42595905B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C9C69A8-09BB-45C5-9B13-73C24614B89B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -251,8 +251,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1248455" y="13607"/>
-          <a:ext cx="642938" cy="494177"/>
+          <a:off x="1077004" y="243841"/>
+          <a:ext cx="1003255" cy="856110"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -560,51 +560,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB63353-6CCF-484C-B02E-43965284DF5E}">
-  <dimension ref="A1:Z100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804C2B45-B3C9-4FD6-99CD-09BAF193A46A}">
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="A6:C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="40.6640625" collapsed="true"/>
-    <col min="3" max="26" customWidth="true" width="15.6640625" collapsed="true"/>
+    <col min="1" max="1" width="25.77734375" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.3">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -615,171 +592,102 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="C6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="C7" t="s" s="0">
+      <c r="C7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="C8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5" t="e">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="39.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="60" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/JavaApplication19/src/excel/DeudasC.xlsx
+++ b/JavaApplication19/src/excel/DeudasC.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
@@ -14,10 +14,12 @@
   </bookViews>
   <sheets>
     <sheet name="deudasCobrar" sheetId="2" r:id="rId1"/>
+    <sheet name="PACO CHAVEZ" r:id="rId6" sheetId="3"/>
+    <sheet name="GABRIEL PEREZ" r:id="rId7" sheetId="4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
   <si>
     <t>CANTIDAD A COBRAR</t>
   </si>
@@ -70,6 +72,12 @@
   </si>
   <si>
     <t>29  julio</t>
+  </si>
+  <si>
+    <t>$8900</t>
+  </si>
+  <si>
+    <t>8500</t>
   </si>
 </sst>
 </file>
@@ -561,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804C2B45-B3C9-4FD6-99CD-09BAF193A46A}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C11"/>
@@ -569,9 +577,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" customWidth="1"/>
-    <col min="3" max="3" width="29.44140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="25.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="26.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="29.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.3">
@@ -581,7 +589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3" ht="28.8" customHeight="true">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -592,7 +600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3" customHeight="true">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -603,7 +611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3" customHeight="true">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -614,7 +622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3" customHeight="true">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -625,7 +633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3" ht="28.8" customHeight="true">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -636,7 +644,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3" ht="28.8" customHeight="true">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -647,7 +655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3" ht="28.8" customHeight="true">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -658,7 +666,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3" ht="28.8" customHeight="true">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -669,7 +677,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3" ht="28.8" customHeight="true">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -680,10 +688,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4" t="e">
+    <row r="11" ht="28.8" customHeight="true">
+      <c r="A11" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" ht="28.8" customHeight="true">
+      <c r="A12" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3" customHeight="true">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4" t="e">
         <f>SUM(#REF!)</f>
         <v>#REF!</v>
       </c>
@@ -695,4 +725,28 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/JavaApplication19/src/excel/DeudasC.xlsx
+++ b/JavaApplication19/src/excel/DeudasC.xlsx
@@ -3,23 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B585FAEB-AE0C-4F9A-8A24-6458336BE7BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0ED1151-D8D3-46A3-8B19-5040E760CC1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F037703D-DCE2-4FD8-8A1C-1A769A6DD818}"/>
   </bookViews>
   <sheets>
     <sheet name="deudasCobrar" sheetId="2" r:id="rId1"/>
-    <sheet name="PACO CHAVEZ" r:id="rId6" sheetId="3"/>
-    <sheet name="GABRIEL PEREZ" r:id="rId7" sheetId="4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>CANTIDAD A COBRAR</t>
   </si>
@@ -38,9 +36,6 @@
     <t>GABRIEL PEREZ</t>
   </si>
   <si>
-    <t>$890</t>
-  </si>
-  <si>
     <t>PACO CHAVEZ</t>
   </si>
   <si>
@@ -54,30 +49,6 @@
   </si>
   <si>
     <t>$234</t>
-  </si>
-  <si>
-    <t>$1245</t>
-  </si>
-  <si>
-    <t>$100</t>
-  </si>
-  <si>
-    <t>28  julio 20</t>
-  </si>
-  <si>
-    <t>Erick Ivan Rodriguez</t>
-  </si>
-  <si>
-    <t>9600</t>
-  </si>
-  <si>
-    <t>29  julio</t>
-  </si>
-  <si>
-    <t>$8900</t>
-  </si>
-  <si>
-    <t>8500</t>
   </si>
 </sst>
 </file>
@@ -224,13 +195,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>1077004</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>243841</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>312419</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1099951</xdr:rowOff>
+      <xdr:rowOff>243841</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -258,9 +229,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1077004" y="243841"/>
-          <a:ext cx="1003255" cy="856110"/>
+        <a:xfrm flipV="1">
+          <a:off x="1077004" y="0"/>
+          <a:ext cx="1003255" cy="243841"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -572,152 +543,69 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="25.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="26.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="29.44140625" collapsed="true"/>
+    <col min="1" max="1" width="25.77734375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="29.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3" ht="28.8" customHeight="true">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" ht="28.8" x14ac:dyDescent="0.3" customHeight="true">
+    <row r="3" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3" customHeight="true">
+    <row r="4" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3" customHeight="true">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
+    <row r="5" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3" ht="28.8" customHeight="true">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3" ht="28.8" customHeight="true">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3" ht="28.8" customHeight="true">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3" ht="28.8" customHeight="true">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3" ht="28.8" customHeight="true">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" ht="28.8" customHeight="true">
-      <c r="A11" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" ht="28.8" customHeight="true">
-      <c r="A12" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3" customHeight="true">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
+    <row r="6" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
@@ -725,28 +613,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>
--- a/JavaApplication19/src/excel/DeudasC.xlsx
+++ b/JavaApplication19/src/excel/DeudasC.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0ED1151-D8D3-46A3-8B19-5040E760CC1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8A7C00-6171-4DA5-9813-40C3005BFBF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F037703D-DCE2-4FD8-8A1C-1A769A6DD818}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F037703D-DCE2-4FD8-8A1C-1A769A6DD818}"/>
   </bookViews>
   <sheets>
     <sheet name="deudasCobrar" sheetId="2" r:id="rId1"/>
+    <sheet name="PACO CHAVEZ" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t>CANTIDAD A COBRAR</t>
   </si>
@@ -39,26 +40,39 @@
     <t>PACO CHAVEZ</t>
   </si>
   <si>
-    <t>$12</t>
-  </si>
-  <si>
     <t>$</t>
   </si>
   <si>
     <t>27  julio</t>
   </si>
   <si>
-    <t>$234</t>
+    <t>29  julio</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>8500</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Monto</t>
+  </si>
+  <si>
+    <t>9200</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,8 +104,86 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,8 +213,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF22B473"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -145,12 +247,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -161,6 +308,48 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -542,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804C2B45-B3C9-4FD6-99CD-09BAF193A46A}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -554,8 +743,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,8 +756,8 @@
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
+      <c r="C2" s="5">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -579,28 +768,61 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4">
+        <f>SUM(C2:C4)</f>
+        <v>246</v>
+      </c>
+    </row>
     <row r="9" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -613,4 +835,33 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/JavaApplication19/src/excel/DeudasC.xlsx
+++ b/JavaApplication19/src/excel/DeudasC.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8A7C00-6171-4DA5-9813-40C3005BFBF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF14641-0FC7-4FD5-BB22-87C3EF986168}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F037703D-DCE2-4FD8-8A1C-1A769A6DD818}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{F037703D-DCE2-4FD8-8A1C-1A769A6DD818}"/>
   </bookViews>
   <sheets>
     <sheet name="deudasCobrar" sheetId="2" r:id="rId1"/>
-    <sheet name="PACO CHAVEZ" sheetId="3" r:id="rId2"/>
+    <sheet name="GABRIEL PEREZ" sheetId="3" r:id="rId2"/>
+    <sheet name="Ivan Rodriguez" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,53 +27,58 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>CANTIDAD A COBRAR</t>
   </si>
   <si>
-    <t>22  julio</t>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Monto</t>
+  </si>
+  <si>
+    <t>29  julio</t>
+  </si>
+  <si>
+    <t>9500</t>
   </si>
   <si>
     <t>GABRIEL PEREZ</t>
   </si>
   <si>
-    <t>PACO CHAVEZ</t>
-  </si>
-  <si>
-    <t>$</t>
-  </si>
-  <si>
-    <t>27  julio</t>
-  </si>
-  <si>
-    <t>29  julio</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>8500</t>
-  </si>
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>Monto</t>
-  </si>
-  <si>
-    <t>9200</t>
+    <t>-2000</t>
+  </si>
+  <si>
+    <t>-500</t>
+  </si>
+  <si>
+    <t>-200</t>
+  </si>
+  <si>
+    <t>-100</t>
+  </si>
+  <si>
+    <t>-600</t>
+  </si>
+  <si>
+    <t>29  julio 20</t>
+  </si>
+  <si>
+    <t>Ivan Rodriguez</t>
+  </si>
+  <si>
+    <t>9600</t>
+  </si>
+  <si>
+    <t>-8500</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-  </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +109,102 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -215,12 +317,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEEEEEE"/>
+        <fgColor rgb="FF22B473"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF22B473"/>
+        <fgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
   </fills>
@@ -297,58 +399,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -743,86 +884,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
+      <c r="A1" s="32"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5">
+      <c r="B2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="9">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
+      <c r="C3" s="24" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4">
-        <f>SUM(C2:C4)</f>
-        <v>246</v>
-      </c>
-    </row>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="31">
+        <f>SUM(C2:C3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -839,28 +940,119 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="13" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="15" t="s">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="A3:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
         <v>11</v>
       </c>
-    </row>
+      <c r="B2" s="28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/JavaApplication19/src/excel/DeudasC.xlsx
+++ b/JavaApplication19/src/excel/DeudasC.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF14641-0FC7-4FD5-BB22-87C3EF986168}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DD54C3-B40C-4F1A-9DBF-0A962B216D51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{F037703D-DCE2-4FD8-8A1C-1A769A6DD818}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{F037703D-DCE2-4FD8-8A1C-1A769A6DD818}"/>
   </bookViews>
   <sheets>
     <sheet name="deudasCobrar" sheetId="2" r:id="rId1"/>
     <sheet name="GABRIEL PEREZ" sheetId="3" r:id="rId2"/>
     <sheet name="Ivan Rodriguez" sheetId="4" r:id="rId3"/>
+    <sheet name="Alex" sheetId="5" r:id="rId4"/>
+    <sheet name="Alvaro Arvizo" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
   <si>
     <t>CANTIDAD A COBRAR</t>
   </si>
@@ -72,13 +74,31 @@
   </si>
   <si>
     <t>-8500</t>
+  </si>
+  <si>
+    <t>30  julio</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>30  julio 20</t>
+  </si>
+  <si>
+    <t>Alvaro Arvizo</t>
+  </si>
+  <si>
+    <t>9200</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="49" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +129,102 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -326,7 +442,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -394,12 +510,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -490,6 +636,54 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -884,8 +1078,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32"/>
+      <c r="A1" s="48"/>
+      <c r="B1" s="48"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -913,15 +1107,35 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="31">
-        <f>SUM(C2:C3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="A4" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="40">
+        <f>SUM(C2:C4)</f>
+        <v>9500</v>
+      </c>
+    </row>
     <row r="7" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1019,7 +1233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
@@ -1056,4 +1270,78 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.44140625" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/JavaApplication19/src/excel/DeudasC.xlsx
+++ b/JavaApplication19/src/excel/DeudasC.xlsx
@@ -8,16 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DD54C3-B40C-4F1A-9DBF-0A962B216D51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1212A63F-80CE-4EF7-8DA1-481DA1A66DC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{F037703D-DCE2-4FD8-8A1C-1A769A6DD818}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F037703D-DCE2-4FD8-8A1C-1A769A6DD818}"/>
   </bookViews>
   <sheets>
     <sheet name="deudasCobrar" sheetId="2" r:id="rId1"/>
-    <sheet name="GABRIEL PEREZ" sheetId="3" r:id="rId2"/>
-    <sheet name="Ivan Rodriguez" sheetId="4" r:id="rId3"/>
-    <sheet name="Alex" sheetId="5" r:id="rId4"/>
-    <sheet name="Alvaro Arvizo" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,39 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>CANTIDAD A COBRAR</t>
-  </si>
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>Monto</t>
   </si>
   <si>
     <t>29  julio</t>
   </si>
   <si>
-    <t>9500</t>
-  </si>
-  <si>
     <t>GABRIEL PEREZ</t>
-  </si>
-  <si>
-    <t>-2000</t>
-  </si>
-  <si>
-    <t>-500</t>
-  </si>
-  <si>
-    <t>-200</t>
-  </si>
-  <si>
-    <t>-100</t>
-  </si>
-  <si>
-    <t>-600</t>
   </si>
   <si>
     <t>29  julio 20</t>
@@ -70,16 +42,7 @@
     <t>Ivan Rodriguez</t>
   </si>
   <si>
-    <t>9600</t>
-  </si>
-  <si>
-    <t>-8500</t>
-  </si>
-  <si>
     <t>30  julio</t>
-  </si>
-  <si>
-    <t>2000</t>
   </si>
   <si>
     <t>Alex</t>
@@ -90,15 +53,12 @@
   <si>
     <t>Alvaro Arvizo</t>
   </si>
-  <si>
-    <t>9200</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="49" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,198 +89,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -442,7 +210,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -525,165 +293,54 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1066,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804C2B45-B3C9-4FD6-99CD-09BAF193A46A}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1078,62 +735,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="48"/>
-      <c r="B1" s="48"/>
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="9">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5">
         <v>9500</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>13</v>
+      <c r="A3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="8">
+        <v>9600</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>16</v>
+      <c r="A4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="11">
+        <v>2000</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>20</v>
+      <c r="A5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="15">
+        <v>9200</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="40">
+      <c r="C6" s="12">
         <f>SUM(C2:C4)</f>
-        <v>9500</v>
+        <v>21100</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1150,198 +807,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="A3:B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/JavaApplication19/src/excel/DeudasC.xlsx
+++ b/JavaApplication19/src/excel/DeudasC.xlsx
@@ -3,21 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1212A63F-80CE-4EF7-8DA1-481DA1A66DC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D304EB-D546-43DC-A768-594E49CF9C3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F037703D-DCE2-4FD8-8A1C-1A769A6DD818}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F037703D-DCE2-4FD8-8A1C-1A769A6DD818}"/>
   </bookViews>
   <sheets>
     <sheet name="deudasCobrar" sheetId="2" r:id="rId1"/>
+    <sheet name="Alex" sheetId="3" r:id="rId2"/>
+    <sheet name="Juana" r:id="rId6" sheetId="4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,40 +27,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
   <si>
     <t>CANTIDAD A COBRAR</t>
   </si>
   <si>
-    <t>29  julio</t>
-  </si>
-  <si>
-    <t>GABRIEL PEREZ</t>
-  </si>
-  <si>
-    <t>29  julio 20</t>
-  </si>
-  <si>
-    <t>Ivan Rodriguez</t>
-  </si>
-  <si>
-    <t>30  julio</t>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Monto</t>
+  </si>
+  <si>
+    <t>31  julio</t>
+  </si>
+  <si>
+    <t>850</t>
   </si>
   <si>
     <t>Alex</t>
   </si>
   <si>
-    <t>30  julio 20</t>
-  </si>
-  <si>
-    <t>Alvaro Arvizo</t>
+    <t>31  julio 20</t>
+  </si>
+  <si>
+    <t>-90</t>
+  </si>
+  <si>
+    <t>-60</t>
+  </si>
+  <si>
+    <t>-50</t>
+  </si>
+  <si>
+    <t>Juana</t>
+  </si>
+  <si>
+    <t>9200</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,8 +180,122 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,8 +335,18 @@
         <fgColor rgb="FFEEEEEE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="EEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="22B473"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -249,102 +385,132 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <bottom style="thin"/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <bottom style="thin"/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -723,76 +889,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804C2B45-B3C9-4FD6-99CD-09BAF193A46A}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.44140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="25.77734375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="26.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="29.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="5">
-        <v>9500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    <row r="2" spans="1:3" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8">
-        <v>9600</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="10" t="s">
+    </row>
+    <row r="3" ht="28.8" customHeight="true">
+      <c r="A3" t="s" s="29">
         <v>6</v>
       </c>
-      <c r="C4" s="11">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="15">
-        <v>9200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="12">
-        <f>SUM(C2:C4)</f>
-        <v>21100</v>
-      </c>
-    </row>
+      <c r="B3" t="s" s="30">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s" s="31">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" t="n" s="28">
+        <f>SUM(C2:C1)</f>
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -807,4 +953,111 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="6">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" ht="28.8" customHeight="true">
+      <c r="A6" t="s" s="18">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s" s="19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" ht="28.8" customHeight="true">
+      <c r="A7" t="s" s="22">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s" s="23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3" customHeight="true">
+      <c r="A8" s="3"/>
+      <c r="B8" t="n" s="25">
+        <f>SUM(B2:B7)</f>
+        <v>940.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="32">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="34">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s" s="35">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/JavaApplication19/src/excel/DeudasC.xlsx
+++ b/JavaApplication19/src/excel/DeudasC.xlsx
@@ -16,6 +16,7 @@
     <sheet name="deudasCobrar" sheetId="2" r:id="rId1"/>
     <sheet name="Alex" sheetId="3" r:id="rId2"/>
     <sheet name="Juana" r:id="rId6" sheetId="4"/>
+    <sheet name="ipopii" r:id="rId7" sheetId="5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>CANTIDAD A COBRAR</t>
   </si>
@@ -63,6 +64,12 @@
   </si>
   <si>
     <t>9200</t>
+  </si>
+  <si>
+    <t>ipopii</t>
+  </si>
+  <si>
+    <t>9780</t>
   </si>
 </sst>
 </file>
@@ -70,7 +77,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +192,54 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -407,7 +462,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -510,6 +565,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -929,15 +1008,25 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" t="n" s="28">
-        <f>SUM(C2:C1)</f>
+    <row r="4" ht="28.8" customHeight="true">
+      <c r="A4" t="s" s="36">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s" s="37">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s" s="38">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" t="n" s="43">
+        <f>SUM(C2:C3)</f>
         <v>0.0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1060,4 +1149,33 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="39">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s" s="40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="41">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s" s="42">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/JavaApplication19/src/excel/DeudasC.xlsx
+++ b/JavaApplication19/src/excel/DeudasC.xlsx
@@ -1,34 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Desarrollo\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D304EB-D546-43DC-A768-594E49CF9C3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC13E30-9E30-4B4E-B90E-702EB2905DDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F037703D-DCE2-4FD8-8A1C-1A769A6DD818}"/>
+    <workbookView xWindow="2573" yWindow="2573" windowWidth="21727" windowHeight="11497" activeTab="2" xr2:uid="{F037703D-DCE2-4FD8-8A1C-1A769A6DD818}"/>
   </bookViews>
   <sheets>
     <sheet name="deudasCobrar" sheetId="2" r:id="rId1"/>
     <sheet name="Alex" sheetId="3" r:id="rId2"/>
-    <sheet name="Juana" r:id="rId6" sheetId="4"/>
-    <sheet name="ipopii" r:id="rId7" sheetId="5"/>
+    <sheet name="Juana" sheetId="4" r:id="rId3"/>
+    <sheet name="PACO CHAVEZ" r:id="rId8" sheetId="5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
   <si>
     <t>CANTIDAD A COBRAR</t>
   </si>
@@ -42,9 +50,6 @@
     <t>31  julio</t>
   </si>
   <si>
-    <t>850</t>
-  </si>
-  <si>
     <t>Alex</t>
   </si>
   <si>
@@ -66,10 +71,10 @@
     <t>9200</t>
   </si>
   <si>
-    <t>ipopii</t>
-  </si>
-  <si>
-    <t>9780</t>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>PACO CHAVEZ</t>
   </si>
 </sst>
 </file>
@@ -77,7 +82,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,88 +199,76 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -392,16 +385,16 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor rgb="EEEEEE"/>
+        <fgColor rgb="22B473"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor rgb="22B473"/>
+        <fgColor rgb="EEEEEE"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -421,6 +414,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,7 +470,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -507,52 +515,52 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
@@ -561,40 +569,34 @@
     <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="1" builtinId="21"/>
+    <cellStyle name="Salida" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -670,7 +672,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -969,72 +971,72 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="25.77734375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="25.796875" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="26.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="29.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="29.46484375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17"/>
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.45">
+      <c r="A1" s="29"/>
+      <c r="B1" s="29"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="9">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+      <c r="A3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" ht="28.8" customHeight="true">
-      <c r="A3" t="s" s="29">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s" s="30">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s" s="31">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" ht="28.8" customHeight="true">
-      <c r="A4" t="s" s="36">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s" s="37">
+      <c r="B3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="23">
+        <v>9200</v>
+      </c>
+    </row>
+    <row r="4" ht="28.5" customHeight="true">
+      <c r="A4" t="s" s="38">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s" s="39">
         <v>12</v>
       </c>
-      <c r="C4" t="s" s="38">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="C4" t="n" s="41">
+        <v>9000.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.5" customHeight="true" x14ac:dyDescent="0.5">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" t="n" s="43">
+      <c r="C5" s="28" t="n">
         <f>SUM(C2:C3)</f>
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>10050.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="7" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="9" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="10" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="11" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="12" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="13" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
@@ -1048,13 +1050,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1062,7 +1064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1070,49 +1072,49 @@
         <v>850</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="11">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="13" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+    <row r="6" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" ht="28.8" customHeight="true">
-      <c r="A6" t="s" s="18">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s" s="19">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" ht="28.8" customHeight="true">
-      <c r="A7" t="s" s="22">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s" s="23">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3" customHeight="true">
+    </row>
+    <row r="8" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
-      <c r="B8" t="n" s="25">
+      <c r="B8" s="20" t="n">
         <f>SUM(B2:B7)</f>
         <v>940.0</v>
       </c>
@@ -1122,58 +1124,62 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="32">
+      <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="33">
+      <c r="B1" s="35" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="30.0" customHeight="true">
-      <c r="A2" t="s" s="34">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s" s="35">
+      <c r="A2" t="s" s="36">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="37">
         <v>11</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="39">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s" s="40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" ht="30.0" customHeight="true">
-      <c r="A2" t="s" s="41">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s" s="42">
-        <v>13</v>
-      </c>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="31"/>
+      <c r="B3" s="34"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/JavaApplication19/src/excel/DeudasC.xlsx
+++ b/JavaApplication19/src/excel/DeudasC.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Desarrollo\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC13E30-9E30-4B4E-B90E-702EB2905DDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A564A059-EC67-43FE-95CA-0DCE80501DDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2573" yWindow="2573" windowWidth="21727" windowHeight="11497" activeTab="2" xr2:uid="{F037703D-DCE2-4FD8-8A1C-1A769A6DD818}"/>
+    <workbookView xWindow="2573" yWindow="2573" windowWidth="21600" windowHeight="11535" activeTab="1" xr2:uid="{F037703D-DCE2-4FD8-8A1C-1A769A6DD818}"/>
   </bookViews>
   <sheets>
     <sheet name="deudasCobrar" sheetId="2" r:id="rId1"/>
     <sheet name="Alex" sheetId="3" r:id="rId2"/>
     <sheet name="Juana" sheetId="4" r:id="rId3"/>
-    <sheet name="PACO CHAVEZ" r:id="rId8" sheetId="5"/>
+    <sheet name="PACO CHAVEZ" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>CANTIDAD A COBRAR</t>
   </si>
@@ -56,15 +56,6 @@
     <t>31  julio 20</t>
   </si>
   <si>
-    <t>-90</t>
-  </si>
-  <si>
-    <t>-60</t>
-  </si>
-  <si>
-    <t>-50</t>
-  </si>
-  <si>
     <t>Juana</t>
   </si>
   <si>
@@ -75,6 +66,15 @@
   </si>
   <si>
     <t>PACO CHAVEZ</t>
+  </si>
+  <si>
+    <t>02  agosto 20</t>
+  </si>
+  <si>
+    <t>-100</t>
+  </si>
+  <si>
+    <t>-300</t>
   </si>
 </sst>
 </file>
@@ -82,7 +82,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,24 +263,6 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -385,16 +367,16 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor rgb="22B473"/>
+        <fgColor rgb="EEEEEE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor rgb="EEEEEE"/>
+        <fgColor rgb="22B473"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -414,6 +396,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,7 +467,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -497,70 +494,70 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
@@ -569,28 +566,19 @@
     <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -982,13 +970,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.45">
-      <c r="A1" s="29"/>
-      <c r="B1" s="29"/>
+      <c r="A1" s="28"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -999,32 +987,32 @@
         <v>850</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="12">
+        <v>9200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="23">
-        <v>9200</v>
-      </c>
-    </row>
-    <row r="4" ht="28.5" customHeight="true">
-      <c r="A4" t="s" s="38">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s" s="39">
-        <v>12</v>
-      </c>
-      <c r="C4" t="n" s="41">
-        <v>9000.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="28.5" customHeight="true" x14ac:dyDescent="0.5">
+      <c r="C4" s="25">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="28" t="n">
+      <c r="C5" t="n" s="38">
         <f>SUM(C2:C3)</f>
         <v>10050.0</v>
       </c>
@@ -1048,10 +1036,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1064,7 +1052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1072,53 +1060,33 @@
         <v>850</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="11">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="28.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="3"/>
-      <c r="B8" s="20" t="n">
-        <f>SUM(B2:B7)</f>
-        <v>940.0</v>
-      </c>
-    </row>
+    <row r="3" ht="28.5" customHeight="true">
+      <c r="A3" t="s" s="29">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s" s="30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="28.5" customHeight="true">
+      <c r="A4" t="s" s="34">
+        <v>10</v>
+      </c>
+      <c r="B4" t="n" s="36">
+        <v>-300.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+      <c r="A5" s="3"/>
+      <c r="B5" t="n" s="37">
+        <f>B2+B3+B4</f>
+        <v>450.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="7" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="8" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="9" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1128,24 +1096,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>10</v>
+      <c r="B2" s="16" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1153,35 +1121,35 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
+      <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="20" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="30.0" customHeight="true">
-      <c r="A2" t="s" s="36">
+    <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s" s="37">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" ht="30.0" customHeight="true">
-      <c r="A3" s="31"/>
-      <c r="B3" s="34"/>
+      <c r="B2" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="17"/>
+      <c r="B3" s="19"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/JavaApplication19/src/excel/DeudasC.xlsx
+++ b/JavaApplication19/src/excel/DeudasC.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>CANTIDAD A COBRAR</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>-300</t>
+  </si>
+  <si>
+    <t>-12</t>
   </si>
 </sst>
 </file>
@@ -82,7 +85,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +266,36 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -467,7 +500,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -579,6 +612,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1012,7 +1060,7 @@
     <row r="5" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" t="n" s="38">
+      <c r="C5" t="n" s="43">
         <f>SUM(C2:C3)</f>
         <v>10050.0</v>
       </c>
@@ -1072,18 +1120,25 @@
       <c r="A4" t="s" s="34">
         <v>10</v>
       </c>
-      <c r="B4" t="n" s="36">
-        <v>-300.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A5" s="3"/>
-      <c r="B5" t="n" s="37">
-        <f>B2+B3+B4</f>
-        <v>450.0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
+      <c r="B4" t="n" s="41">
+        <v>-12.0</v>
+      </c>
+    </row>
+    <row r="5" ht="28.5" customHeight="true">
+      <c r="A5" t="s" s="39">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s" s="40">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+      <c r="A6" s="3"/>
+      <c r="B6" t="n" s="42">
+        <f>B2+B3+B4+B5</f>
+        <v>726.0</v>
+      </c>
+    </row>
     <row r="7" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="8" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="9" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>

--- a/JavaApplication19/src/excel/DeudasC.xlsx
+++ b/JavaApplication19/src/excel/DeudasC.xlsx
@@ -1,83 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Desarrollo\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A564A059-EC67-43FE-95CA-0DCE80501DDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5DBA7D-B6A0-46D9-B91C-CBA7264DFAC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2573" yWindow="2573" windowWidth="21600" windowHeight="11535" activeTab="1" xr2:uid="{F037703D-DCE2-4FD8-8A1C-1A769A6DD818}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F037703D-DCE2-4FD8-8A1C-1A769A6DD818}"/>
   </bookViews>
   <sheets>
     <sheet name="deudasCobrar" sheetId="2" r:id="rId1"/>
-    <sheet name="Alex" sheetId="3" r:id="rId2"/>
-    <sheet name="Juana" sheetId="4" r:id="rId3"/>
-    <sheet name="PACO CHAVEZ" sheetId="5" r:id="rId4"/>
+    <sheet name="PACO CHAVEZ" sheetId="3" r:id="rId2"/>
+    <sheet name="GABRIEL PEREZ" sheetId="4" r:id="rId3"/>
+    <sheet name="Mario" r:id="rId8" sheetId="5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
   <si>
     <t>CANTIDAD A COBRAR</t>
   </si>
   <si>
-    <t>Fecha</t>
+    <t>FECHA</t>
   </si>
   <si>
-    <t>Monto</t>
+    <t>MONTO</t>
   </si>
   <si>
-    <t>31  julio</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>31  julio 20</t>
-  </si>
-  <si>
-    <t>Juana</t>
-  </si>
-  <si>
-    <t>9200</t>
-  </si>
-  <si>
-    <t>9000</t>
+    <t>03  agosto</t>
   </si>
   <si>
     <t>PACO CHAVEZ</t>
   </si>
   <si>
-    <t>02  agosto 20</t>
+    <t>GABRIEL PEREZ</t>
   </si>
   <si>
-    <t>-100</t>
-  </si>
-  <si>
-    <t>-300</t>
-  </si>
-  <si>
-    <t>-12</t>
+    <t>640.3</t>
   </si>
 </sst>
 </file>
@@ -85,7 +56,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,34 +239,28 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -400,16 +365,16 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor rgb="EEEEEE"/>
+        <fgColor rgb="22B473"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor rgb="22B473"/>
+        <fgColor rgb="EEEEEE"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -429,36 +394,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,7 +435,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -512,7 +447,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -527,85 +462,85 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
@@ -614,25 +549,22 @@
     <xf numFmtId="0" fontId="38" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Salida" xfId="1" builtinId="21"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -708,7 +640,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1006,73 +938,63 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804C2B45-B3C9-4FD6-99CD-09BAF193A46A}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="25.796875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="25.77734375" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="26.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="29.46484375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="29.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.45">
-      <c r="A1" s="28"/>
-      <c r="B1" s="28"/>
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="32"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="9">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="10" t="s">
+      <c r="C2" s="12">
+        <v>1200.3999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="12">
-        <v>9200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="25">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" t="n" s="43">
+      <c r="C3" s="27">
+        <v>2414.16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="31" t="n">
         <f>SUM(C2:C3)</f>
-        <v>10050.0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="7" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="9" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="10" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="11" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="12" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="13" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.45"/>
+        <v>3614.5599999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
@@ -1084,64 +1006,67 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="3" ht="28.5" customHeight="true">
-      <c r="A3" t="s" s="29">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s" s="30">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" ht="28.5" customHeight="true">
-      <c r="A4" t="s" s="34">
-        <v>10</v>
-      </c>
-      <c r="B4" t="n" s="41">
-        <v>-12.0</v>
-      </c>
-    </row>
-    <row r="5" ht="28.5" customHeight="true">
-      <c r="A5" t="s" s="39">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s" s="40">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A6" s="3"/>
-      <c r="B6" t="n" s="42">
-        <f>B2+B3+B4+B5</f>
-        <v>726.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="8" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="9" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45"/>
+      <c r="B2" s="7">
+        <v>120.03999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="11">
+        <v>120.03999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14">
+        <v>960.31999999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="23">
+        <v>20050</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="25">
+        <v>640.16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="26" t="n">
+        <f>SUM(B2:B6)</f>
+        <v>21890.56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1149,26 +1074,41 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>7</v>
+    <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="19">
+        <v>80.02</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="29">
+        <v>573.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15"/>
+      <c r="B4" s="30" t="n">
+        <f>SUM(B2:B3)</f>
+        <v>653.62</v>
       </c>
     </row>
   </sheetData>
@@ -1176,35 +1116,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
-      <c r="A1" s="18" t="s">
+    <row r="1">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="38" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="21" t="s">
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="39">
         <v>3</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="17"/>
-      <c r="B3" s="19"/>
+      <c r="B2" t="n" s="41">
+        <v>640.3</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="34"/>
+      <c r="B3" t="n" s="42">
+        <f>SUM(B2:B1)</f>
+        <v>640.3</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/JavaApplication19/src/excel/DeudasC.xlsx
+++ b/JavaApplication19/src/excel/DeudasC.xlsx
@@ -1,36 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Desarrollo\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5DBA7D-B6A0-46D9-B91C-CBA7264DFAC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55BEBD19-40FC-46C5-9FEE-21C016444F28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F037703D-DCE2-4FD8-8A1C-1A769A6DD818}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" xr2:uid="{F037703D-DCE2-4FD8-8A1C-1A769A6DD818}"/>
   </bookViews>
   <sheets>
     <sheet name="deudasCobrar" sheetId="2" r:id="rId1"/>
-    <sheet name="PACO CHAVEZ" sheetId="3" r:id="rId2"/>
-    <sheet name="GABRIEL PEREZ" sheetId="4" r:id="rId3"/>
-    <sheet name="Mario" r:id="rId8" sheetId="5"/>
+    <sheet name="PACO CHAVEZ" r:id="rId5" sheetId="3"/>
+    <sheet name="NUEVO DEUDOR" r:id="rId6" sheetId="4"/>
+    <sheet name="Erick Rodriguez" r:id="rId7" sheetId="5"/>
+    <sheet name="RECONOCIBLE" r:id="rId8" sheetId="6"/>
+    <sheet name="RECONOCIBLE 2" r:id="rId9" sheetId="7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="20">
   <si>
     <t>CANTIDAD A COBRAR</t>
+  </si>
+  <si>
+    <t>04  agosto 20</t>
+  </si>
+  <si>
+    <t>PACO CHAVEZ</t>
+  </si>
+  <si>
+    <t>1000</t>
   </si>
   <si>
     <t>FECHA</t>
@@ -39,16 +58,46 @@
     <t>MONTO</t>
   </si>
   <si>
-    <t>03  agosto</t>
+    <t>-100</t>
   </si>
   <si>
-    <t>PACO CHAVEZ</t>
+    <t>NUEVO DEUDOR</t>
   </si>
   <si>
-    <t>GABRIEL PEREZ</t>
+    <t>10000</t>
   </si>
   <si>
-    <t>640.3</t>
+    <t>-1000</t>
+  </si>
+  <si>
+    <t>-2000</t>
+  </si>
+  <si>
+    <t>04  agosto</t>
+  </si>
+  <si>
+    <t>240.1</t>
+  </si>
+  <si>
+    <t>Erick Rodriguez</t>
+  </si>
+  <si>
+    <t>440.2</t>
+  </si>
+  <si>
+    <t>573.6</t>
+  </si>
+  <si>
+    <t>506.9</t>
+  </si>
+  <si>
+    <t>80.02</t>
+  </si>
+  <si>
+    <t>RECONOCIBLE</t>
+  </si>
+  <si>
+    <t>RECONOCIBLE 2</t>
   </si>
 </sst>
 </file>
@@ -56,7 +105,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="121" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,172 +144,640 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -359,8 +876,13 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="EEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEEEEEE"/>
+        <fgColor rgb="EEEEEE"/>
       </patternFill>
     </fill>
     <fill>
@@ -368,13 +890,8 @@
         <fgColor rgb="22B473"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="EEEEEE"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -394,21 +911,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -435,7 +937,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -444,127 +946,361 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="39" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="1" builtinId="21"/>
+    <cellStyle name="Salida" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -589,15 +1325,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1077004</xdr:colOff>
+      <xdr:colOff>1476375</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>312419</xdr:colOff>
+      <xdr:colOff>312630</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>243841</xdr:rowOff>
+      <xdr:rowOff>481013</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -625,9 +1361,9 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1077004" y="0"/>
-          <a:ext cx="1003255" cy="243841"/>
+        <a:xfrm>
+          <a:off x="1476375" y="1"/>
+          <a:ext cx="679343" cy="481012"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -640,7 +1376,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -939,62 +1675,92 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="25.77734375" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="25.796875" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="26.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="29.44140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="29.46484375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32"/>
+    <row r="1" spans="1:3" ht="43.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="12">
-        <v>1200.3999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="27">
-        <v>2414.16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="31" t="n">
-        <f>SUM(C2:C3)</f>
-        <v>3614.5599999999995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" ht="28.5" customHeight="true">
+      <c r="A2" t="s" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n" s="8">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="3" ht="28.5" customHeight="true">
+      <c r="A3" t="s" s="25">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s" s="26">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n" s="50">
+        <v>7000.0</v>
+      </c>
+    </row>
+    <row r="4" ht="28.5" customHeight="true">
+      <c r="A4" t="s" s="62">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s" s="63">
+        <v>13</v>
+      </c>
+      <c r="C4" t="n" s="85">
+        <v>2201.0</v>
+      </c>
+    </row>
+    <row r="5" ht="28.5" customHeight="true">
+      <c r="A5" t="s" s="101">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s" s="102">
+        <v>18</v>
+      </c>
+      <c r="C5" t="n" s="104">
+        <v>80.02</v>
+      </c>
+    </row>
+    <row r="6" ht="28.5" customHeight="true">
+      <c r="A6" t="s" s="116">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s" s="117">
+        <v>19</v>
+      </c>
+      <c r="C6" t="n" s="119">
+        <v>80.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.5" customHeight="true" x14ac:dyDescent="0.5">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" t="n" s="120">
+        <f>SUM(C2:C6)</f>
+        <v>10361.04</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="9" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="10" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="11" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="12" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="13" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
@@ -1004,119 +1770,171 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n" s="22">
+        <v>-100.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" t="s" s="20">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" ht="30.0" customHeight="true">
+      <c r="A4" s="10"/>
+      <c r="B4" t="n" s="23">
+        <f>B2+B3</f>
+        <v>-200.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="35">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n" s="37">
+        <v>10000.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" t="s" s="40">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s" s="41">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" ht="30.0" customHeight="true">
+      <c r="A4" t="s" s="46">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n" s="48">
+        <v>-2000.0</v>
+      </c>
+    </row>
+    <row r="5" ht="30.0" customHeight="true">
+      <c r="A5" s="30"/>
+      <c r="B5" t="n" s="49">
+        <f>B2+B3+B4</f>
+        <v>7000.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="7">
-        <v>120.03999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="11">
-        <v>120.03999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="14">
-        <v>960.31999999999994</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="23">
-        <v>20050</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="25">
-        <v>640.16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="26" t="n">
+    <row r="1">
+      <c r="A1" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="58">
+        <v>11</v>
+      </c>
+      <c r="B2" t="n" s="60">
+        <v>240.1</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" t="s" s="68">
+        <v>11</v>
+      </c>
+      <c r="B3" t="n" s="70">
+        <v>440.2</v>
+      </c>
+    </row>
+    <row r="4" ht="30.0" customHeight="true">
+      <c r="A4" t="s" s="74">
+        <v>11</v>
+      </c>
+      <c r="B4" t="n" s="76">
+        <v>440.2</v>
+      </c>
+    </row>
+    <row r="5" ht="30.0" customHeight="true">
+      <c r="A5" t="s" s="80">
+        <v>11</v>
+      </c>
+      <c r="B5" t="n" s="82">
+        <v>573.6</v>
+      </c>
+    </row>
+    <row r="6" ht="30.0" customHeight="true">
+      <c r="A6" t="s" s="86">
+        <v>11</v>
+      </c>
+      <c r="B6" t="n" s="88">
+        <v>506.9</v>
+      </c>
+    </row>
+    <row r="7" ht="30.0" customHeight="true">
+      <c r="A7" s="53"/>
+      <c r="B7" t="n" s="89">
         <f>SUM(B2:B6)</f>
-        <v>21890.56</v>
+        <v>2201.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="19">
-        <v>80.02</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="29">
-        <v>573.6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
-      <c r="B4" s="30" t="n">
-        <f>SUM(B2:B3)</f>
-        <v>653.62</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1125,26 +1943,62 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>2</v>
+      <c r="A1" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="96" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" ht="30.0" customHeight="true">
-      <c r="A2" t="s" s="39">
-        <v>3</v>
-      </c>
-      <c r="B2" t="n" s="41">
-        <v>640.3</v>
+      <c r="A2" t="s" s="97">
+        <v>11</v>
+      </c>
+      <c r="B2" t="n" s="99">
+        <v>80.02</v>
       </c>
     </row>
     <row r="3" ht="30.0" customHeight="true">
-      <c r="A3" s="34"/>
-      <c r="B3" t="n" s="42">
-        <f>SUM(B2:B1)</f>
-        <v>640.3</v>
+      <c r="A3" s="92"/>
+      <c r="B3" t="n" s="100">
+        <f>SUM(B1:B2)</f>
+        <v>80.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="108" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="112">
+        <v>11</v>
+      </c>
+      <c r="B2" t="n" s="114">
+        <v>80.02</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="107"/>
+      <c r="B3" t="n" s="115">
+        <f>SUM(B1:B2)</f>
+        <v>80.02</v>
       </c>
     </row>
   </sheetData>

--- a/JavaApplication19/src/excel/DeudasC.xlsx
+++ b/JavaApplication19/src/excel/DeudasC.xlsx
@@ -19,6 +19,7 @@
     <sheet name="Erick Rodriguez" r:id="rId7" sheetId="5"/>
     <sheet name="RECONOCIBLE" r:id="rId8" sheetId="6"/>
     <sheet name="RECONOCIBLE 2" r:id="rId9" sheetId="7"/>
+    <sheet name="came" r:id="rId10" sheetId="8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="22">
   <si>
     <t>CANTIDAD A COBRAR</t>
   </si>
@@ -99,13 +100,19 @@
   <si>
     <t>RECONOCIBLE 2</t>
   </si>
+  <si>
+    <t>came</t>
+  </si>
+  <si>
+    <t>640.3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="121" x14ac:knownFonts="1">
+  <fonts count="142" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +149,132 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -937,7 +1070,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1295,6 +1428,69 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="120" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1747,15 +1943,25 @@
         <v>80.02</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28.5" customHeight="true" x14ac:dyDescent="0.5">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" t="n" s="120">
-        <f>SUM(C2:C6)</f>
-        <v>10361.04</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="7" ht="28.5" customHeight="true">
+      <c r="A7" t="s" s="121">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s" s="122">
+        <v>20</v>
+      </c>
+      <c r="C7" t="n" s="136">
+        <v>1640.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.5" customHeight="true" x14ac:dyDescent="0.5">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" t="n" s="141">
+        <f>C2+C3+C4+C5+C6+C7</f>
+        <v>12001.34</v>
+      </c>
+    </row>
     <row r="9" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="10" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1772,7 +1978,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1803,10 +2009,18 @@
       </c>
     </row>
     <row r="4" ht="30.0" customHeight="true">
-      <c r="A4" s="10"/>
-      <c r="B4" t="n" s="23">
-        <f>B2+B3</f>
-        <v>-200.0</v>
+      <c r="A4" t="s" s="137">
+        <v>11</v>
+      </c>
+      <c r="B4" t="n" s="139">
+        <v>640.3</v>
+      </c>
+    </row>
+    <row r="5" ht="30.0" customHeight="true">
+      <c r="A5" s="10"/>
+      <c r="B5" t="n" s="140">
+        <f>SUM(B2:B4)</f>
+        <v>540.3</v>
       </c>
     </row>
   </sheetData>
@@ -2004,4 +2218,40 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="127" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="130" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="131">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n" s="133">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="126"/>
+      <c r="B3" t="n" s="135">
+        <f>B2</f>
+        <v>1000.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/JavaApplication19/src/excel/DeudasC.xlsx
+++ b/JavaApplication19/src/excel/DeudasC.xlsx
@@ -20,6 +20,21 @@
     <sheet name="RECONOCIBLE" r:id="rId8" sheetId="6"/>
     <sheet name="RECONOCIBLE 2" r:id="rId9" sheetId="7"/>
     <sheet name="came" r:id="rId10" sheetId="8"/>
+    <sheet name="ALONSO" r:id="rId11" sheetId="9"/>
+    <sheet name="rolo" r:id="rId12" sheetId="10"/>
+    <sheet name="quepedo" r:id="rId13" sheetId="11"/>
+    <sheet name="NOMBRE" r:id="rId14" sheetId="12"/>
+    <sheet name="alvaro obregon" r:id="rId15" sheetId="13"/>
+    <sheet name="HOLA" r:id="rId16" sheetId="14"/>
+    <sheet name="WEY" r:id="rId17" sheetId="15"/>
+    <sheet name="ELNUEVO" r:id="rId18" sheetId="16"/>
+    <sheet name="eya" r:id="rId19" sheetId="17"/>
+    <sheet name="HOLLAA" r:id="rId20" sheetId="18"/>
+    <sheet name="HLA" r:id="rId21" sheetId="19"/>
+    <sheet name="HASJKS" r:id="rId22" sheetId="20"/>
+    <sheet name="berga" r:id="rId23" sheetId="21"/>
+    <sheet name="BETITO" r:id="rId24" sheetId="22"/>
+    <sheet name="INAN" r:id="rId25" sheetId="23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="48">
   <si>
     <t>CANTIDAD A COBRAR</t>
   </si>
@@ -106,13 +121,91 @@
   <si>
     <t>640.3</t>
   </si>
+  <si>
+    <t>05  agosto 20</t>
+  </si>
+  <si>
+    <t>ALONSO</t>
+  </si>
+  <si>
+    <t>rolo</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>quepedo</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>NOMBRE</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>alvaro obregon</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>HOLA</t>
+  </si>
+  <si>
+    <t>WEY</t>
+  </si>
+  <si>
+    <t>12334</t>
+  </si>
+  <si>
+    <t>ELNUEVO</t>
+  </si>
+  <si>
+    <t>90000</t>
+  </si>
+  <si>
+    <t>eya</t>
+  </si>
+  <si>
+    <t>HOLLAA</t>
+  </si>
+  <si>
+    <t>24234</t>
+  </si>
+  <si>
+    <t>HLA</t>
+  </si>
+  <si>
+    <t>HASJKS</t>
+  </si>
+  <si>
+    <t>12321</t>
+  </si>
+  <si>
+    <t>berga</t>
+  </si>
+  <si>
+    <t>19000</t>
+  </si>
+  <si>
+    <t>BETITO</t>
+  </si>
+  <si>
+    <t>8000</t>
+  </si>
+  <si>
+    <t>INAN</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="142" x14ac:knownFonts="1">
+  <fonts count="367" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +242,1356 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1070,7 +2513,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="367">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1491,6 +2934,681 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="141" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="8" borderId="5" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1868,7 +3986,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804C2B45-B3C9-4FD6-99CD-09BAF193A46A}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -1954,25 +4072,690 @@
         <v>1640.3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.5" customHeight="true" x14ac:dyDescent="0.5">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" t="n" s="141">
-        <f>C2+C3+C4+C5+C6+C7</f>
-        <v>12001.34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="10" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="11" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="12" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="13" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="8" ht="28.5" customHeight="true">
+      <c r="A8" t="s" s="142">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s" s="143">
+        <v>23</v>
+      </c>
+      <c r="C8" t="n" s="145">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="9" ht="28.5" customHeight="true">
+      <c r="A9" t="s" s="157">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s" s="158">
+        <v>24</v>
+      </c>
+      <c r="C9" t="n" s="160">
+        <v>2000.0</v>
+      </c>
+    </row>
+    <row r="10" ht="28.5" customHeight="true">
+      <c r="A10" t="s" s="172">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s" s="173">
+        <v>26</v>
+      </c>
+      <c r="C10" t="n" s="175">
+        <v>123.0</v>
+      </c>
+    </row>
+    <row r="11" ht="28.5" customHeight="true">
+      <c r="A11" t="s" s="187">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s" s="188">
+        <v>28</v>
+      </c>
+      <c r="C11" t="n" s="190">
+        <v>1234.0</v>
+      </c>
+    </row>
+    <row r="12" ht="28.5" customHeight="true">
+      <c r="A12" t="s" s="202">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s" s="203">
+        <v>30</v>
+      </c>
+      <c r="C12" t="n" s="205">
+        <v>9000.0</v>
+      </c>
+    </row>
+    <row r="13" ht="28.5" customHeight="true">
+      <c r="A13" t="s" s="217">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s" s="218">
+        <v>32</v>
+      </c>
+      <c r="C13" t="n" s="220">
+        <v>2000.0</v>
+      </c>
+    </row>
+    <row r="14" ht="28.5" customHeight="true">
+      <c r="A14" t="s" s="232">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s" s="233">
+        <v>33</v>
+      </c>
+      <c r="C14" t="n" s="235">
+        <v>12334.0</v>
+      </c>
+    </row>
+    <row r="15" ht="28.5" customHeight="true">
+      <c r="A15" t="s" s="247">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s" s="248">
+        <v>35</v>
+      </c>
+      <c r="C15" t="n" s="250">
+        <v>90000.0</v>
+      </c>
+    </row>
+    <row r="16" ht="28.5" customHeight="true">
+      <c r="A16" t="s" s="262">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s" s="263">
+        <v>37</v>
+      </c>
+      <c r="C16" t="n" s="265">
+        <v>10000.0</v>
+      </c>
+    </row>
+    <row r="17" ht="28.5" customHeight="true">
+      <c r="A17" t="s" s="277">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s" s="278">
+        <v>38</v>
+      </c>
+      <c r="C17" t="n" s="280">
+        <v>24234.0</v>
+      </c>
+    </row>
+    <row r="18" ht="28.5" customHeight="true">
+      <c r="A18" t="s" s="292">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s" s="293">
+        <v>40</v>
+      </c>
+      <c r="C18" t="n" s="295">
+        <v>123.0</v>
+      </c>
+    </row>
+    <row r="19" ht="28.5" customHeight="true">
+      <c r="A19" t="s" s="307">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s" s="308">
+        <v>41</v>
+      </c>
+      <c r="C19" t="n" s="310">
+        <v>12321.0</v>
+      </c>
+    </row>
+    <row r="20" ht="28.5" customHeight="true">
+      <c r="A20" t="s" s="322">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s" s="323">
+        <v>43</v>
+      </c>
+      <c r="C20" t="n" s="325">
+        <v>19000.0</v>
+      </c>
+    </row>
+    <row r="21" ht="28.5" customHeight="true">
+      <c r="A21" t="s" s="337">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s" s="338">
+        <v>45</v>
+      </c>
+      <c r="C21" t="n" s="340">
+        <v>8000.0</v>
+      </c>
+    </row>
+    <row r="22" ht="28.5" customHeight="true">
+      <c r="A22" t="s" s="352">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s" s="353">
+        <v>47</v>
+      </c>
+      <c r="C22" t="n" s="355">
+        <v>90000.0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="28.5" customHeight="true" x14ac:dyDescent="0.5">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" t="n" s="365">
+        <f>SUM(C2:C22)</f>
+        <v>293370.33999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="163" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="166" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="167">
+        <v>22</v>
+      </c>
+      <c r="B2" t="n" s="169">
+        <v>2000.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="162"/>
+      <c r="B3" t="n" s="171">
+        <f>B2</f>
+        <v>2000.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="178" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="181" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="182">
+        <v>22</v>
+      </c>
+      <c r="B2" t="n" s="184">
+        <v>123.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="177"/>
+      <c r="B3" t="n" s="186">
+        <f>B2</f>
+        <v>123.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="193" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="196" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="197">
+        <v>22</v>
+      </c>
+      <c r="B2" t="n" s="199">
+        <v>1234.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="192"/>
+      <c r="B3" t="n" s="201">
+        <f>B2</f>
+        <v>1234.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="208" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="211" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="212">
+        <v>22</v>
+      </c>
+      <c r="B2" t="n" s="214">
+        <v>9000.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="207"/>
+      <c r="B3" t="n" s="216">
+        <f>B2</f>
+        <v>9000.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="223" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="226" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="227">
+        <v>22</v>
+      </c>
+      <c r="B2" t="n" s="229">
+        <v>2000.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="222"/>
+      <c r="B3" t="n" s="231">
+        <f>B2</f>
+        <v>2000.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="238" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="241" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="242">
+        <v>22</v>
+      </c>
+      <c r="B2" t="n" s="244">
+        <v>12334.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="237"/>
+      <c r="B3" t="n" s="246">
+        <f>B2</f>
+        <v>12334.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="253" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="256" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="257">
+        <v>22</v>
+      </c>
+      <c r="B2" t="n" s="259">
+        <v>90000.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="252"/>
+      <c r="B3" t="n" s="261">
+        <f>B2</f>
+        <v>90000.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="268" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="271" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="272">
+        <v>22</v>
+      </c>
+      <c r="B2" t="n" s="274">
+        <v>10000.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="267"/>
+      <c r="B3" t="n" s="276">
+        <f>B2</f>
+        <v>10000.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="283" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="286" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="287">
+        <v>22</v>
+      </c>
+      <c r="B2" t="n" s="289">
+        <v>24234.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="282"/>
+      <c r="B3" t="n" s="291">
+        <f>B2</f>
+        <v>24234.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="298" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="301" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="302">
+        <v>22</v>
+      </c>
+      <c r="B2" t="n" s="304">
+        <v>123.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="297"/>
+      <c r="B3" t="n" s="306">
+        <f>B2</f>
+        <v>123.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="313" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="316" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="317">
+        <v>22</v>
+      </c>
+      <c r="B2" t="n" s="319">
+        <v>12321.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="312"/>
+      <c r="B3" t="n" s="321">
+        <f>B2</f>
+        <v>12321.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="328" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="331" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="332">
+        <v>22</v>
+      </c>
+      <c r="B2" t="n" s="334">
+        <v>19000.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="327"/>
+      <c r="B3" t="n" s="336">
+        <f>B2</f>
+        <v>19000.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="343" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="346" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="347">
+        <v>22</v>
+      </c>
+      <c r="B2" t="n" s="349">
+        <v>8000.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="342"/>
+      <c r="B3" t="n" s="351">
+        <f>B2</f>
+        <v>8000.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="358" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="361" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="362">
+        <v>22</v>
+      </c>
+      <c r="B2" t="n" s="364">
+        <v>90000.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="357"/>
+      <c r="B3" t="n" s="366">
+        <f>B2</f>
+        <v>90000.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -2254,4 +5037,40 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="148" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="151" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="152">
+        <v>22</v>
+      </c>
+      <c r="B2" t="n" s="154">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="147"/>
+      <c r="B3" t="n" s="156">
+        <f>B2</f>
+        <v>1000.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/JavaApplication19/src/excel/DeudasC.xlsx
+++ b/JavaApplication19/src/excel/DeudasC.xlsx
@@ -20,6 +20,7 @@
     <sheet name="joto" r:id="rId9" sheetId="6"/>
     <sheet name="otro joto" r:id="rId10" sheetId="7"/>
     <sheet name="ALVARO" r:id="rId11" sheetId="8"/>
+    <sheet name="Juanito " r:id="rId12" sheetId="9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="23">
   <si>
     <t>CANTIDAD A COBRAR</t>
   </si>
@@ -100,13 +101,22 @@
   <si>
     <t>ALVARO</t>
   </si>
+  <si>
+    <t>06  agosto</t>
+  </si>
+  <si>
+    <t>506.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juanito </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="131" x14ac:knownFonts="1">
+  <fonts count="146" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,6 +321,96 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1013,7 +1113,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1401,6 +1501,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="130" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1778,7 +1923,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804C2B45-B3C9-4FD6-99CD-09BAF193A46A}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B1"/>
@@ -1864,12 +2009,23 @@
         <v>111.0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.5" customHeight="true" x14ac:dyDescent="0.5">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" t="n" s="130">
-        <f>SUM(C2:C7)</f>
-        <v>132469.3</v>
+    <row r="8" ht="28.5" customHeight="true">
+      <c r="A8" t="s" s="141">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s" s="142">
+        <v>22</v>
+      </c>
+      <c r="C8" t="n" s="144">
+        <v>506.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.5" customHeight="true" x14ac:dyDescent="0.5">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" t="n" s="145">
+        <f>SUM(C2:C8)</f>
+        <v>132976.19999999998</v>
       </c>
     </row>
   </sheetData>
@@ -2191,4 +2347,40 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="133" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="136" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="137">
+        <v>20</v>
+      </c>
+      <c r="B2" t="n" s="139">
+        <v>506.9</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="132"/>
+      <c r="B3" t="n" s="140">
+        <f>SUM(B1:B2)</f>
+        <v>506.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/JavaApplication19/src/excel/DeudasC.xlsx
+++ b/JavaApplication19/src/excel/DeudasC.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="26">
   <si>
     <t>CANTIDAD A COBRAR</t>
   </si>
@@ -110,13 +110,22 @@
   <si>
     <t xml:space="preserve">Juanito </t>
   </si>
+  <si>
+    <t>546.9200000000001</t>
+  </si>
+  <si>
+    <t>240.07999999999998</t>
+  </si>
+  <si>
+    <t>573.6</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="146" x14ac:knownFonts="1">
+  <fonts count="164" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,6 +330,114 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1113,7 +1230,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1546,6 +1663,60 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="145" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2016,16 +2187,16 @@
       <c r="B8" t="s" s="142">
         <v>22</v>
       </c>
-      <c r="C8" t="n" s="144">
-        <v>506.9</v>
+      <c r="C8" t="n" s="158">
+        <v>835.9</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.5" customHeight="true" x14ac:dyDescent="0.5">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" t="n" s="145">
-        <f>SUM(C2:C8)</f>
-        <v>132976.19999999998</v>
+      <c r="C9" t="n" s="163">
+        <f>C2+C3+C4+C5+C6+C7+C8</f>
+        <v>133305.19999999998</v>
       </c>
     </row>
   </sheetData>
@@ -2039,7 +2210,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2093,11 +2264,35 @@
         <v>-89.0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A7" s="6"/>
-      <c r="B7" t="n" s="65">
-        <f>B2+B3+B4+B5+B6</f>
-        <v>262.29999999999995</v>
+    <row r="7" ht="28.5" customHeight="true">
+      <c r="A7" t="s" s="147">
+        <v>20</v>
+      </c>
+      <c r="B7" t="n" s="149">
+        <v>546.9200000000001</v>
+      </c>
+    </row>
+    <row r="8" ht="28.5" customHeight="true">
+      <c r="A8" t="s" s="153">
+        <v>20</v>
+      </c>
+      <c r="B8" t="n" s="155">
+        <v>240.07999999999998</v>
+      </c>
+    </row>
+    <row r="9" ht="28.5" customHeight="true">
+      <c r="A9" t="s" s="159">
+        <v>20</v>
+      </c>
+      <c r="B9" t="n" s="161">
+        <v>573.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+      <c r="A10" s="6"/>
+      <c r="B10" t="n" s="162">
+        <f>SUM(B2:B9)</f>
+        <v>1811.9</v>
       </c>
     </row>
   </sheetData>

--- a/JavaApplication19/src/excel/DeudasC.xlsx
+++ b/JavaApplication19/src/excel/DeudasC.xlsx
@@ -21,6 +21,8 @@
     <sheet name="otro joto" r:id="rId10" sheetId="7"/>
     <sheet name="ALVARO" r:id="rId11" sheetId="8"/>
     <sheet name="Juanito " r:id="rId12" sheetId="9"/>
+    <sheet name="ALETS" r:id="rId13" sheetId="10"/>
+    <sheet name="FERNANDO" r:id="rId14" sheetId="11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="30">
   <si>
     <t>CANTIDAD A COBRAR</t>
   </si>
@@ -119,13 +121,25 @@
   <si>
     <t>573.6</t>
   </si>
+  <si>
+    <t>640.3</t>
+  </si>
+  <si>
+    <t>ALETS</t>
+  </si>
+  <si>
+    <t>FERNANDO</t>
+  </si>
+  <si>
+    <t>120.03999999999999</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="164" x14ac:knownFonts="1">
+  <fonts count="206" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,6 +344,258 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1230,7 +1496,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1717,6 +1983,132 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="163" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="189" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="190" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2094,7 +2486,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804C2B45-B3C9-4FD6-99CD-09BAF193A46A}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B1"/>
@@ -2187,16 +2579,38 @@
       <c r="B8" t="s" s="142">
         <v>22</v>
       </c>
-      <c r="C8" t="n" s="158">
+      <c r="C8" t="n" s="164">
         <v>835.9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.5" customHeight="true" x14ac:dyDescent="0.5">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" t="n" s="163">
-        <f>C2+C3+C4+C5+C6+C7+C8</f>
-        <v>133305.19999999998</v>
+    <row r="9" ht="28.5" customHeight="true">
+      <c r="A9" t="s" s="180">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s" s="181">
+        <v>27</v>
+      </c>
+      <c r="C9" t="n" s="183">
+        <v>640.3</v>
+      </c>
+    </row>
+    <row r="10" ht="28.5" customHeight="true">
+      <c r="A10" t="s" s="195">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s" s="196">
+        <v>28</v>
+      </c>
+      <c r="C10" t="n" s="200">
+        <v>382.3399999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.5" customHeight="true" x14ac:dyDescent="0.5">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" t="n" s="205">
+        <f>C2+C3+C4+C5+C6+C7+C8+C9+C10</f>
+        <v>134327.83999999997</v>
       </c>
     </row>
   </sheetData>
@@ -2208,9 +2622,81 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="172" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="175" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="176">
+        <v>20</v>
+      </c>
+      <c r="B2" t="n" s="178">
+        <v>640.3</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="171"/>
+      <c r="B3" t="n" s="179">
+        <f>SUM(B1:B2)</f>
+        <v>640.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="187" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="190" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="191">
+        <v>20</v>
+      </c>
+      <c r="B2" t="n" s="193">
+        <v>240.07999999999998</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="186"/>
+      <c r="B3" t="n" s="194">
+        <f>SUM(B1:B2)</f>
+        <v>240.07999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2288,11 +2774,27 @@
         <v>573.6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A10" s="6"/>
-      <c r="B10" t="n" s="162">
-        <f>SUM(B2:B9)</f>
-        <v>1811.9</v>
+    <row r="10" ht="28.5" customHeight="true">
+      <c r="A10" t="s" s="165">
+        <v>20</v>
+      </c>
+      <c r="B10" t="n" s="167">
+        <v>573.6</v>
+      </c>
+    </row>
+    <row r="11" ht="28.5" customHeight="true">
+      <c r="A11" t="s" s="201">
+        <v>20</v>
+      </c>
+      <c r="B11" t="n" s="203">
+        <v>120.03999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+      <c r="A12" s="6"/>
+      <c r="B12" t="n" s="204">
+        <f>SUM(B2:B11)</f>
+        <v>2505.54</v>
       </c>
     </row>
   </sheetData>

--- a/JavaApplication19/src/excel/DeudasC.xlsx
+++ b/JavaApplication19/src/excel/DeudasC.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="32">
   <si>
     <t>CANTIDAD A COBRAR</t>
   </si>
@@ -133,13 +133,21 @@
   <si>
     <t>120.03999999999999</t>
   </si>
+  <si>
+    <t>06  agosto 20</t>
+  </si>
+  <si>
+    <t>-500</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="206" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="$#,#0.00"/>
+  </numFmts>
+  <fonts count="212" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1383,8 +1391,44 @@
       <color indexed="8"/>
       <b val="true"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1432,6 +1476,16 @@
     <fill>
       <patternFill patternType="none">
         <fgColor rgb="22B473"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="03DF7B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="03DF7B"/>
       </patternFill>
     </fill>
   </fills>
@@ -1496,7 +1550,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="206">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2109,6 +2163,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="205" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="7" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="208" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="209" fillId="11" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="210" fillId="7" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="211" fillId="11" borderId="6" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2513,8 +2585,8 @@
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="n" s="66">
-        <v>262.29999999999995</v>
+      <c r="C2" t="n" s="210">
+        <v>1816.54</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
@@ -2608,9 +2680,9 @@
     <row r="11" spans="1:3" ht="28.5" customHeight="true" x14ac:dyDescent="0.5">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" t="n" s="205">
-        <f>C2+C3+C4+C5+C6+C7+C8+C9+C10</f>
-        <v>134327.83999999997</v>
+      <c r="C11" t="n" s="211">
+        <f>SUM(C2:C10)</f>
+        <v>135882.08</v>
       </c>
     </row>
   </sheetData>
@@ -2696,7 +2768,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2790,11 +2862,19 @@
         <v>120.03999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A12" s="6"/>
-      <c r="B12" t="n" s="204">
-        <f>SUM(B2:B11)</f>
-        <v>2505.54</v>
+    <row r="12" ht="28.5" customHeight="true">
+      <c r="A12" t="s" s="206">
+        <v>30</v>
+      </c>
+      <c r="B12" t="n" s="208">
+        <v>-500.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+      <c r="A13" s="6"/>
+      <c r="B13" t="n" s="209">
+        <f>B2+B3+B4+B5+B6+B7+B8+B9+B10+B11+B12</f>
+        <v>1816.54</v>
       </c>
     </row>
   </sheetData>

--- a/JavaApplication19/src/excel/DeudasC.xlsx
+++ b/JavaApplication19/src/excel/DeudasC.xlsx
@@ -15,6 +15,13 @@
   <sheets>
     <sheet name="deudasCobrar" sheetId="2" r:id="rId1"/>
     <sheet name="PACO CHAVEZ" sheetId="3" r:id="rId2"/>
+    <sheet name="ALEX BACA SIERRA" r:id="rId6" sheetId="4"/>
+    <sheet name="EFRAIN BACA" r:id="rId7" sheetId="5"/>
+    <sheet name="ANGEL BACA" r:id="rId8" sheetId="6"/>
+    <sheet name="franciasco" r:id="rId9" sheetId="7"/>
+    <sheet name="franciasco chavez" r:id="rId10" sheetId="8"/>
+    <sheet name="Juanito " r:id="rId11" sheetId="9"/>
+    <sheet name="ARIEL SANDOVAL" r:id="rId12" sheetId="10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="31">
   <si>
     <t>CANTIDAD A COBRAR</t>
   </si>
@@ -76,6 +83,57 @@
   </si>
   <si>
     <t>-1000</t>
+  </si>
+  <si>
+    <t>13  agosto 20</t>
+  </si>
+  <si>
+    <t>-123</t>
+  </si>
+  <si>
+    <t>ALEX BACA SIERRA</t>
+  </si>
+  <si>
+    <t>2345</t>
+  </si>
+  <si>
+    <t>EFRAIN BACA</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>ANGEL BACA</t>
+  </si>
+  <si>
+    <t>franciasco</t>
+  </si>
+  <si>
+    <t>13  AGOSTO</t>
+  </si>
+  <si>
+    <t>69.6</t>
+  </si>
+  <si>
+    <t>franciasco chavez</t>
+  </si>
+  <si>
+    <t>440.2</t>
+  </si>
+  <si>
+    <t>160.04</t>
+  </si>
+  <si>
+    <t>1200.3999999999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juanito </t>
+  </si>
+  <si>
+    <t>80.02</t>
+  </si>
+  <si>
+    <t>ARIEL SANDOVAL</t>
   </si>
 </sst>
 </file>
@@ -86,7 +144,7 @@
     <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="165" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="63" x14ac:knownFonts="1">
+  <fonts count="186" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,6 +403,744 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -625,7 +1421,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="186">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -809,6 +1605,375 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="62" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="65" fillId="7" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="66" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="67" fillId="7" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="68" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="69" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="70" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="72" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="73" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="78" fillId="7" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="81" fillId="7" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="82" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="83" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="84" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="85" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="87" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="88" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="93" fillId="7" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="96" fillId="7" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="97" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="98" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="99" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="100" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="102" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="103" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="108" fillId="7" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="111" fillId="7" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="112" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="113" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="114" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="115" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="117" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="118" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="123" fillId="7" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="126" fillId="7" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="127" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="128" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="129" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="130" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="132" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="133" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="137" fillId="7" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="138" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="142" fillId="7" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="143" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="144" fillId="7" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="147" fillId="7" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="148" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="149" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="150" fillId="7" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="153" fillId="7" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="154" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="155" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="156" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="157" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="159" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="160" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="164" fillId="7" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="165" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="169" fillId="7" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="170" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="171" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="172" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="174" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="175" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="179" fillId="7" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="180" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="184" fillId="7" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="185" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1186,7 +2351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB1B288-CBC1-42F0-AED4-0A61BA306BD2}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="A3:C3"/>
@@ -1213,16 +2378,60 @@
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="39">
-        <v>4152.1400000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="28.5" customHeight="true" x14ac:dyDescent="0.5">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" t="n" s="62">
-        <f>SUM(C2:C3)</f>
-        <v>4152.14</v>
+      <c r="C2" t="n" s="67">
+        <v>4029.1400000000003</v>
+      </c>
+    </row>
+    <row r="3" ht="28.5" customHeight="true">
+      <c r="A3" t="s" s="75">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s" s="76">
+        <v>16</v>
+      </c>
+      <c r="C3" t="n" s="78">
+        <v>2345.0</v>
+      </c>
+    </row>
+    <row r="4" ht="28.5" customHeight="true">
+      <c r="A4" t="s" s="90">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s" s="91">
+        <v>18</v>
+      </c>
+      <c r="C4" t="n" s="93">
+        <v>123456.0</v>
+      </c>
+    </row>
+    <row r="5" ht="28.5" customHeight="true">
+      <c r="A5" t="s" s="105">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s" s="106">
+        <v>20</v>
+      </c>
+      <c r="C5" t="n" s="108">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="6" ht="28.5" customHeight="true">
+      <c r="A6" t="s" s="181">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s" s="182">
+        <v>30</v>
+      </c>
+      <c r="C6" t="n" s="184">
+        <v>80.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.5" customHeight="true" x14ac:dyDescent="0.5">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" t="n" s="185">
+        <f>SUM(C2:C6)</f>
+        <v>130910.16</v>
       </c>
     </row>
   </sheetData>
@@ -1234,9 +2443,45 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="173" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="176" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="177">
+        <v>22</v>
+      </c>
+      <c r="B2" t="n" s="179">
+        <v>80.02</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="172"/>
+      <c r="B3" t="n" s="180">
+        <f>SUM(B1:B2)</f>
+        <v>80.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA64585-84A6-433D-9E70-1859BE533C47}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1253,7 +2498,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1261,7 +2506,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
@@ -1269,7 +2514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
@@ -1277,7 +2522,7 @@
         <v>640.29999999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
@@ -1285,7 +2530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A6" s="16" t="s">
         <v>7</v>
       </c>
@@ -1293,7 +2538,7 @@
         <v>-89</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A7" s="18" t="s">
         <v>9</v>
       </c>
@@ -1301,7 +2546,7 @@
         <v>546.92000000000007</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A8" s="20" t="s">
         <v>9</v>
       </c>
@@ -1309,7 +2554,7 @@
         <v>240.07999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A9" s="22" t="s">
         <v>9</v>
       </c>
@@ -1317,7 +2562,7 @@
         <v>573.6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A10" s="24" t="s">
         <v>9</v>
       </c>
@@ -1325,7 +2570,7 @@
         <v>573.6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A11" s="26" t="s">
         <v>9</v>
       </c>
@@ -1333,7 +2578,7 @@
         <v>120.03999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A12" s="28" t="s">
         <v>10</v>
       </c>
@@ -1341,7 +2586,7 @@
         <v>-1234</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A13" s="30" t="s">
         <v>10</v>
       </c>
@@ -1349,7 +2594,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A14" s="32" t="s">
         <v>9</v>
       </c>
@@ -1357,7 +2602,7 @@
         <v>69.599999999999994</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A15" s="34" t="s">
         <v>10</v>
       </c>
@@ -1365,7 +2610,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
       <c r="A16" s="36" t="s">
         <v>10</v>
       </c>
@@ -1373,14 +2618,254 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="5"/>
-      <c r="B17" s="38" t="n">
-        <f>B2+B3+B4+B5+B6+B7+B8+B9+B10+B11+B12+B13+B14+B15+B16</f>
-        <v>4152.14</v>
+    <row r="17" ht="28.5" customHeight="true">
+      <c r="A17" t="s" s="63">
+        <v>14</v>
+      </c>
+      <c r="B17" t="n" s="65">
+        <v>-123.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+      <c r="A18" s="5"/>
+      <c r="B18" t="n" s="66">
+        <f>B2+B3+B4+B5+B6+B7+B8+B9+B10+B11+B12+B13+B14+B15+B16+B17</f>
+        <v>4029.1400000000003</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="79">
+        <v>14</v>
+      </c>
+      <c r="B2" t="n" s="81">
+        <v>2345.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="70"/>
+      <c r="B3" t="n" s="83">
+        <f>B2</f>
+        <v>2345.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="89" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="94">
+        <v>14</v>
+      </c>
+      <c r="B2" t="n" s="96">
+        <v>123456.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="85"/>
+      <c r="B3" t="n" s="98">
+        <f>B2</f>
+        <v>123456.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="101" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="104" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="109">
+        <v>14</v>
+      </c>
+      <c r="B2" t="n" s="111">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="100"/>
+      <c r="B3" t="n" s="113">
+        <f>B2</f>
+        <v>1000.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="116" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="119" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="124">
+        <v>14</v>
+      </c>
+      <c r="B2" t="n" s="126">
+        <v>1000.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="115"/>
+      <c r="B3" t="n" s="128">
+        <f>B2</f>
+        <v>1000.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="131" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="134" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="135">
+        <v>22</v>
+      </c>
+      <c r="B2" t="n" s="137">
+        <v>69.6</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" t="s" s="145">
+        <v>22</v>
+      </c>
+      <c r="B3" t="n" s="147">
+        <v>440.2</v>
+      </c>
+    </row>
+    <row r="4" ht="30.0" customHeight="true">
+      <c r="A4" t="s" s="151">
+        <v>22</v>
+      </c>
+      <c r="B4" t="n" s="153">
+        <v>160.04</v>
+      </c>
+    </row>
+    <row r="5" ht="30.0" customHeight="true">
+      <c r="A5" s="130"/>
+      <c r="B5" t="n" s="154">
+        <f>SUM(B2:B4)</f>
+        <v>669.8399999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="158" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="161" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="162">
+        <v>22</v>
+      </c>
+      <c r="B2" t="n" s="164">
+        <v>1200.3999999999999</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="157"/>
+      <c r="B3" t="n" s="165">
+        <f>SUM(B1:B2)</f>
+        <v>1200.3999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/JavaApplication19/src/excel/DeudasC.xlsx
+++ b/JavaApplication19/src/excel/DeudasC.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="33">
   <si>
     <t>CANTIDAD A COBRAR</t>
   </si>
@@ -134,6 +134,12 @@
   </si>
   <si>
     <t>ARIEL SANDOVAL</t>
+  </si>
+  <si>
+    <t>18  AGOSTO</t>
+  </si>
+  <si>
+    <t>17647.95</t>
   </si>
 </sst>
 </file>
@@ -144,7 +150,7 @@
     <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="165" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="186" x14ac:knownFonts="1">
+  <fonts count="192" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,6 +409,42 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1421,7 +1463,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1974,6 +2016,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="185" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="186" fillId="7" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="187" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="188" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="189" fillId="7" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="190" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="191" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2422,16 +2482,16 @@
       <c r="B6" t="s" s="182">
         <v>30</v>
       </c>
-      <c r="C6" t="n" s="184">
-        <v>80.02</v>
+      <c r="C6" t="n" s="186">
+        <v>21677.09</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="28.5" customHeight="true" x14ac:dyDescent="0.5">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" t="n" s="185">
-        <f>SUM(C2:C6)</f>
-        <v>130910.16</v>
+      <c r="C7" t="n" s="191">
+        <f>C2+C3+C4+C5+C6</f>
+        <v>152507.23</v>
       </c>
     </row>
   </sheetData>
@@ -2481,7 +2541,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA64585-84A6-433D-9E70-1859BE533C47}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2626,11 +2686,19 @@
         <v>-123.0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A18" s="5"/>
-      <c r="B18" t="n" s="66">
-        <f>B2+B3+B4+B5+B6+B7+B8+B9+B10+B11+B12+B13+B14+B15+B16+B17</f>
-        <v>4029.1400000000003</v>
+    <row r="18" ht="28.5" customHeight="true">
+      <c r="A18" t="s" s="187">
+        <v>31</v>
+      </c>
+      <c r="B18" t="n" s="189">
+        <v>17647.95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+      <c r="A19" s="5"/>
+      <c r="B19" t="n" s="190">
+        <f>SUM(B2:B18)</f>
+        <v>21866.09</v>
       </c>
     </row>
   </sheetData>

--- a/JavaApplication19/src/excel/DeudasC.xlsx
+++ b/JavaApplication19/src/excel/DeudasC.xlsx
@@ -22,6 +22,8 @@
     <sheet name="franciasco chavez" r:id="rId10" sheetId="8"/>
     <sheet name="Juanito " r:id="rId11" sheetId="9"/>
     <sheet name="ARIEL SANDOVAL" r:id="rId12" sheetId="10"/>
+    <sheet name="Nuevo Cliente" r:id="rId13" sheetId="11"/>
+    <sheet name="DON RIATAS" r:id="rId14" sheetId="12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="41">
   <si>
     <t>CANTIDAD A COBRAR</t>
   </si>
@@ -140,6 +142,30 @@
   </si>
   <si>
     <t>17647.95</t>
+  </si>
+  <si>
+    <t>19  AGOSTO</t>
+  </si>
+  <si>
+    <t>75.5918</t>
+  </si>
+  <si>
+    <t>19  agosto 20</t>
+  </si>
+  <si>
+    <t>1431.4399999999998</t>
+  </si>
+  <si>
+    <t>400.2</t>
+  </si>
+  <si>
+    <t>Nuevo Cliente</t>
+  </si>
+  <si>
+    <t>2.32</t>
+  </si>
+  <si>
+    <t>DON RIATAS</t>
   </si>
 </sst>
 </file>
@@ -150,7 +176,7 @@
     <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="165" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="192" x14ac:knownFonts="1">
+  <fonts count="234" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,6 +435,258 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1463,7 +1741,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="234">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2034,6 +2312,132 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="191" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="192" fillId="7" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="195" fillId="7" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="196" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="197" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="198" fillId="7" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="201" fillId="7" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="202" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="203" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="8" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="8" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="8" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="8" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="212" fillId="7" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="213" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="217" fillId="7" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="218" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="8" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="8" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="8" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="8" borderId="8" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="227" fillId="7" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="228" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="7" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="232" fillId="7" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="233" fillId="8" borderId="8" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2411,7 +2815,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB1B288-CBC1-42F0-AED4-0A61BA306BD2}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="A3:C3"/>
@@ -2482,16 +2886,38 @@
       <c r="B6" t="s" s="182">
         <v>30</v>
       </c>
-      <c r="C6" t="n" s="186">
-        <v>21677.09</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="28.5" customHeight="true" x14ac:dyDescent="0.5">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" t="n" s="191">
-        <f>C2+C3+C4+C5+C6</f>
-        <v>152507.23</v>
+      <c r="C6" t="n" s="198">
+        <v>5460.58</v>
+      </c>
+    </row>
+    <row r="7" ht="28.5" customHeight="true">
+      <c r="A7" t="s" s="214">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s" s="215">
+        <v>38</v>
+      </c>
+      <c r="C7" t="n" s="217">
+        <v>400.2</v>
+      </c>
+    </row>
+    <row r="8" ht="28.5" customHeight="true">
+      <c r="A8" t="s" s="229">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s" s="230">
+        <v>40</v>
+      </c>
+      <c r="C8" t="n" s="232">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.5" customHeight="true" x14ac:dyDescent="0.5">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" t="n" s="233">
+        <f>C2+C3+C4+C5+C6+C7</f>
+        <v>136690.92</v>
       </c>
     </row>
   </sheetData>
@@ -2539,9 +2965,89 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="39.0625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.34375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="206" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="209" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="210">
+        <v>35</v>
+      </c>
+      <c r="B2" t="n" s="212">
+        <v>400.2</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="205"/>
+      <c r="B3" t="n" s="213">
+        <f>SUM(B1:B2)</f>
+        <v>400.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="39.0625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.34375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="221" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="224" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="225">
+        <v>35</v>
+      </c>
+      <c r="B2" t="n" s="227">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="220"/>
+      <c r="B3" t="n" s="228">
+        <f>SUM(B1:B2)</f>
+        <v>2.32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EA64585-84A6-433D-9E70-1859BE533C47}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2694,11 +3200,27 @@
         <v>17647.95</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
-      <c r="A19" s="5"/>
-      <c r="B19" t="n" s="190">
-        <f>SUM(B2:B18)</f>
-        <v>21866.09</v>
+    <row r="19" ht="28.5" customHeight="true">
+      <c r="A19" t="s" s="193">
+        <v>33</v>
+      </c>
+      <c r="B19" t="n" s="195">
+        <v>75.5918</v>
+      </c>
+    </row>
+    <row r="20" ht="28.5" customHeight="true">
+      <c r="A20" t="s" s="199">
+        <v>35</v>
+      </c>
+      <c r="B20" t="n" s="201">
+        <v>1431.4399999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="28.5" customHeight="true" x14ac:dyDescent="0.45">
+      <c r="A21" s="5"/>
+      <c r="B21" t="n" s="202">
+        <f>SUM(B2:B20)</f>
+        <v>23373.121799999997</v>
       </c>
     </row>
   </sheetData>

--- a/JavaApplication19/src/excel/DeudasC.xlsx
+++ b/JavaApplication19/src/excel/DeudasC.xlsx
@@ -1,42 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Desarrollo\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erick Ivan\Desktop\EMAS\Epic Mountain System\EPIC-MOUNTAIN-SYSTEM\JavaApplication19\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A43B73-8755-4CAA-985E-4A79F1002591}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F258F0-9418-4B92-8EC2-2E9338223282}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{F037703D-DCE2-4FD8-8A1C-1A769A6DD818}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F037703D-DCE2-4FD8-8A1C-1A769A6DD818}"/>
   </bookViews>
   <sheets>
     <sheet name="deudasCobrar" sheetId="2" r:id="rId1"/>
-    <sheet name="PACO CHAVEZ" r:id="rId6" sheetId="3"/>
-    <sheet name="ALBERTANO" r:id="rId7" sheetId="4"/>
-    <sheet name="OLI DELGADO" r:id="rId8" sheetId="5"/>
+    <sheet name="GABRIEL PEREZ" r:id="rId6" sheetId="3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>CANTIDAD A COBRAR</t>
   </si>
@@ -50,16 +40,25 @@
     <t>21  AGOSTO</t>
   </si>
   <si>
-    <t>75.5918</t>
+    <t>475.612</t>
+  </si>
+  <si>
+    <t>GABRIEL PEREZ</t>
+  </si>
+  <si>
+    <t>21  agosto 20</t>
+  </si>
+  <si>
+    <t>-475.612</t>
+  </si>
+  <si>
+    <t>40.2959</t>
   </si>
   <si>
     <t>PACO CHAVEZ</t>
   </si>
   <si>
-    <t>ALBERTANO</t>
-  </si>
-  <si>
-    <t>OLI DELGADO</t>
+    <t>-40.2959</t>
   </si>
 </sst>
 </file>
@@ -70,7 +69,7 @@
     <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="165" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="50" x14ac:knownFonts="1">
+  <fonts count="47" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,24 +106,6 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -501,7 +482,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -558,67 +539,67 @@
     <xf numFmtId="165" fontId="19" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="11" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="29" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="11" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="22" fillId="11" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="11" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="11" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="33" fillId="11" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="34" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="34" fillId="11" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="35" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="39" fillId="11" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="40" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="11" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
@@ -633,25 +614,16 @@
     <xf numFmtId="165" fontId="44" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="11" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="11" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="48" fillId="11" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="49" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="165" fontId="45" fillId="11" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="46" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Salida" xfId="1" builtinId="21"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -727,7 +699,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1023,65 +995,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB1B288-CBC1-42F0-AED4-0A61BA306BD2}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="C7" sqref="A2:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="25.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="26.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="29.44140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="43.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
+      <c r="C1" t="n" s="24">
+        <v>0.0</v>
       </c>
     </row>
-    <row r="2" ht="30.0" customHeight="true">
+    <row r="2" ht="28.8" customHeight="true">
       <c r="A2" t="s" s="15">
         <v>3</v>
       </c>
       <c r="B2" t="s" s="16">
         <v>5</v>
       </c>
-      <c r="C2" t="n" s="18">
-        <v>75.5918</v>
+      <c r="C2" t="n" s="45">
+        <v>0.0</v>
       </c>
     </row>
-    <row r="3" ht="30.0" customHeight="true">
-      <c r="A3" t="s" s="30">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s" s="31">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n" s="33">
-        <v>75.5918</v>
-      </c>
-    </row>
-    <row r="4" ht="30.0" customHeight="true">
-      <c r="A4" t="s" s="45">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s" s="46">
-        <v>7</v>
-      </c>
-      <c r="C4" t="n" s="48">
-        <v>75.5918</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="30.0" customHeight="true" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" t="n" s="49">
-        <f>SUM(C2:C4)</f>
-        <v>226.77540000000002</v>
+    <row r="3" spans="1:3" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" t="n" s="46">
+        <f>SUM(C2:C2)</f>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -1095,7 +1045,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1118,94 +1068,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n" s="13">
-        <v>75.5918</v>
+        <v>475.612</v>
       </c>
     </row>
     <row r="3" ht="30.0" customHeight="true">
-      <c r="A3" s="6"/>
-      <c r="B3" t="n" s="14">
-        <f>SUM(B1:B2)</f>
-        <v>75.5918</v>
+      <c r="A3" t="s" s="20">
+        <v>6</v>
+      </c>
+      <c r="B3" t="n" s="22">
+        <v>-475.612</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="39.0625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.34375" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" ht="30.0" customHeight="true">
-      <c r="A2" t="s" s="26">
-        <v>3</v>
-      </c>
-      <c r="B2" t="n" s="28">
-        <v>75.5918</v>
-      </c>
-    </row>
-    <row r="3" ht="30.0" customHeight="true">
-      <c r="A3" s="21"/>
-      <c r="B3" t="n" s="29">
-        <f>SUM(B1:B2)</f>
-        <v>75.5918</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="39.0625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.34375" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" ht="30.0" customHeight="true">
-      <c r="A2" t="s" s="41">
-        <v>3</v>
-      </c>
-      <c r="B2" t="n" s="43">
-        <v>75.5918</v>
-      </c>
-    </row>
-    <row r="3" ht="30.0" customHeight="true">
-      <c r="A3" s="36"/>
-      <c r="B3" t="n" s="44">
-        <f>SUM(B1:B2)</f>
-        <v>75.5918</v>
+    <row r="4" ht="30.0" customHeight="true">
+      <c r="A4" s="6"/>
+      <c r="B4" t="n" s="23">
+        <f>B2+B3</f>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/JavaApplication19/src/excel/DeudasC.xlsx
+++ b/JavaApplication19/src/excel/DeudasC.xlsx
@@ -15,6 +15,7 @@
   <sheets>
     <sheet name="deudasCobrar" sheetId="2" r:id="rId1"/>
     <sheet name="GABRIEL PEREZ" r:id="rId6" sheetId="3"/>
+    <sheet name="ALVARO" r:id="rId7" sheetId="4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
   <si>
     <t>CANTIDAD A COBRAR</t>
   </si>
@@ -60,6 +61,12 @@
   <si>
     <t>-40.2959</t>
   </si>
+  <si>
+    <t>ALVARO</t>
+  </si>
+  <si>
+    <t>6000</t>
+  </si>
 </sst>
 </file>
 
@@ -69,7 +76,7 @@
     <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="165" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="47" x14ac:knownFonts="1">
+  <fonts count="62" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +113,96 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -482,7 +579,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -618,6 +715,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="46" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="6" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="6" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="6" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="6" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="11" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="11" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="11" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="56" fillId="11" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="11" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="11" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="59" fillId="11" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="60" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="61" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -995,7 +1137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB1B288-CBC1-42F0-AED4-0A61BA306BD2}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="A2:C7"/>
@@ -1026,12 +1168,23 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" t="n" s="46">
-        <f>SUM(C2:C2)</f>
-        <v>0.0</v>
+    <row r="3" ht="28.8" customHeight="true">
+      <c r="A3" t="s" s="53">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s" s="54">
+        <v>11</v>
+      </c>
+      <c r="C3" t="n" s="56">
+        <v>6000.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" t="n" s="60">
+        <f>SUM(C2:C3)</f>
+        <v>6000.0</v>
       </c>
     </row>
   </sheetData>
@@ -1089,4 +1242,44 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="39.0625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.34375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="57">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n" s="59">
+        <v>6000.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="48"/>
+      <c r="B3" t="n" s="61">
+        <f>B2</f>
+        <v>6000.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/JavaApplication19/src/excel/DeudasC.xlsx
+++ b/JavaApplication19/src/excel/DeudasC.xlsx
@@ -16,6 +16,9 @@
     <sheet name="deudasCobrar" sheetId="2" r:id="rId1"/>
     <sheet name="GABRIEL PEREZ" r:id="rId6" sheetId="3"/>
     <sheet name="ALVARO" r:id="rId7" sheetId="4"/>
+    <sheet name="IVAN" r:id="rId8" sheetId="5"/>
+    <sheet name="EKS" r:id="rId9" sheetId="6"/>
+    <sheet name="JEJE" r:id="rId10" sheetId="7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
   <si>
     <t>CANTIDAD A COBRAR</t>
   </si>
@@ -67,6 +70,18 @@
   <si>
     <t>6000</t>
   </si>
+  <si>
+    <t>IVAN</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>EKS</t>
+  </si>
+  <si>
+    <t>JEJE</t>
+  </si>
 </sst>
 </file>
 
@@ -76,7 +91,7 @@
     <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="165" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="62" x14ac:knownFonts="1">
+  <fonts count="107" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +128,276 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -579,7 +864,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -760,6 +1045,141 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="61" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="6" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="6" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="6" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="6" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="11" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="11" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="11" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="71" fillId="11" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="11" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="11" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="74" fillId="11" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="75" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="76" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="6" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="6" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="6" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="6" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="11" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="11" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="11" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="86" fillId="11" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="11" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="11" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="89" fillId="11" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="90" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="91" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="6" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="6" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="6" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="6" borderId="6" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="9" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="11" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="11" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="11" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="101" fillId="11" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="11" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="11" borderId="6" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="104" fillId="11" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="105" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="106" fillId="6" borderId="6" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1137,7 +1557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB1B288-CBC1-42F0-AED4-0A61BA306BD2}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="A2:C7"/>
@@ -1179,12 +1599,45 @@
         <v>6000.0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" t="n" s="60">
-        <f>SUM(C2:C3)</f>
+    <row r="4" ht="28.8" customHeight="true">
+      <c r="A4" t="s" s="68">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s" s="69">
+        <v>13</v>
+      </c>
+      <c r="C4" t="n" s="71">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="5" ht="28.8" customHeight="true">
+      <c r="A5" t="s" s="83">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s" s="84">
+        <v>15</v>
+      </c>
+      <c r="C5" t="n" s="86">
         <v>6000.0</v>
+      </c>
+    </row>
+    <row r="6" ht="28.8" customHeight="true">
+      <c r="A6" t="s" s="98">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s" s="99">
+        <v>16</v>
+      </c>
+      <c r="C6" t="n" s="101">
+        <v>6000.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" t="n" s="105">
+        <f>SUM(C2:C6)</f>
+        <v>18600.0</v>
       </c>
     </row>
   </sheetData>
@@ -1282,4 +1735,124 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="39.0625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.34375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="72">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n" s="74">
+        <v>600.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="63"/>
+      <c r="B3" t="n" s="76">
+        <f>B2</f>
+        <v>600.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="39.0625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.34375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="87">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n" s="89">
+        <v>6000.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="78"/>
+      <c r="B3" t="n" s="91">
+        <f>B2</f>
+        <v>6000.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="39.0625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.34375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="97" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="102">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n" s="104">
+        <v>6000.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="93"/>
+      <c r="B3" t="n" s="106">
+        <f>B2</f>
+        <v>6000.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/JavaApplication19/src/excel/DeudasC.xlsx
+++ b/JavaApplication19/src/excel/DeudasC.xlsx
@@ -19,6 +19,8 @@
     <sheet name="IVAN" sheetId="5" r:id="rId4"/>
     <sheet name="EKS" sheetId="6" r:id="rId5"/>
     <sheet name="JEJE" sheetId="7" r:id="rId6"/>
+    <sheet name="PRUEBA1" r:id="rId10" sheetId="8"/>
+    <sheet name="PRUEBA" r:id="rId11" sheetId="9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="17">
   <si>
     <t>FECHA</t>
   </si>
@@ -67,6 +69,21 @@
   <si>
     <t>-588.265</t>
   </si>
+  <si>
+    <t>24  agosto 20</t>
+  </si>
+  <si>
+    <t>PRUEBA1</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>PRUEBA</t>
+  </si>
+  <si>
+    <t>6000</t>
+  </si>
 </sst>
 </file>
 
@@ -76,7 +93,7 @@
     <numFmt numFmtId="164" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="165" formatCode="$#,#0.00"/>
   </numFmts>
-  <fonts count="73" x14ac:knownFonts="1">
+  <fonts count="103" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,6 +412,186 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="8"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -654,7 +851,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -868,6 +1065,96 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="72" fillId="5" borderId="7" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="5" borderId="7" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="5" borderId="7" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="5" borderId="7" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="5" borderId="7" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="82" fillId="7" borderId="7" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="85" fillId="7" borderId="7" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="86" fillId="5" borderId="7" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="87" fillId="5" borderId="7" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="5" borderId="7" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="5" borderId="7" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="5" borderId="7" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="5" borderId="7" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="97" fillId="7" borderId="7" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="7" borderId="7" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="100" fillId="7" borderId="7" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="101" fillId="5" borderId="7" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="102" fillId="5" borderId="7" xfId="0" applyNumberFormat="true" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1245,7 +1532,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFB1B288-CBC1-42F0-AED4-0A61BA306BD2}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -1320,12 +1607,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" t="n" s="72">
-        <f>SUM(C2:C6)</f>
-        <v>12600.0</v>
+    <row r="7" ht="28.8" customHeight="true">
+      <c r="A7" t="s" s="79">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s" s="80">
+        <v>13</v>
+      </c>
+      <c r="C7" t="n" s="82">
+        <v>9000.0</v>
+      </c>
+    </row>
+    <row r="8" ht="28.8" customHeight="true">
+      <c r="A8" t="s" s="94">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s" s="95">
+        <v>15</v>
+      </c>
+      <c r="C8" t="n" s="97">
+        <v>6000.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.8" customHeight="true" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" t="n" s="101">
+        <f>SUM(C2:C8)</f>
+        <v>27600.0</v>
       </c>
     </row>
   </sheetData>
@@ -1545,4 +1854,84 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="39.0625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.34375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="78" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="83">
+        <v>12</v>
+      </c>
+      <c r="B2" t="n" s="85">
+        <v>9000.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="74"/>
+      <c r="B3" t="n" s="87">
+        <f>B2</f>
+        <v>9000.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="39.0625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.34375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="93" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="30.0" customHeight="true">
+      <c r="A2" t="s" s="98">
+        <v>12</v>
+      </c>
+      <c r="B2" t="n" s="100">
+        <v>6000.0</v>
+      </c>
+    </row>
+    <row r="3" ht="30.0" customHeight="true">
+      <c r="A3" s="89"/>
+      <c r="B3" t="n" s="102">
+        <f>B2</f>
+        <v>6000.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>